--- a/jets/expdata/10002.xlsx
+++ b/jets/expdata/10002.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yiyu/Google Drive/ing/jefferson lab/scholarship/monte carlo/fitpack2/database/jet/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711633A9-3E70-8440-99DF-90C098549F24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>idx</t>
+  </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>particles-in</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
+    <t>pt-min</t>
+  </si>
+  <si>
+    <t>pt-max</t>
+  </si>
+  <si>
     <t>pT</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>eta-abs-min</t>
+  </si>
+  <si>
+    <t>eta-abs-max</t>
+  </si>
+  <si>
+    <t>cone-radius</t>
   </si>
   <si>
     <t>obs</t>
@@ -45,149 +58,466 @@
     <t>value</t>
   </si>
   <si>
-    <t>ppb</t>
+    <t>stat_u</t>
   </si>
   <si>
-    <t>eta_abs_min</t>
+    <t>%-jet-energy_c</t>
   </si>
   <si>
-    <t>eta_abs_max</t>
+    <t>%-dijet-nominal-0.0-0.1_c</t>
   </si>
   <si>
-    <t>pt_min</t>
+    <t>%-dijet-nominal-0.1-0.7_c</t>
   </si>
   <si>
-    <t>pt_max</t>
+    <t>%-dijet-nominal-0.7-1.1_c</t>
   </si>
   <si>
-    <t>tau</t>
+    <t>%-dijet-nominal-1.1-1.6_c</t>
   </si>
   <si>
-    <t>plot_factor</t>
+    <t>%-dijet-nominal-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-dijet-additional-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-dijet-additional-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-dijet-additional-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-dijet-additional-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-dijet-additional-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-pileup_c</t>
+  </si>
+  <si>
+    <t>%-unfold_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-resolution-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-resolution-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-resolution-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-resolution-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-resolution-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-norm_c</t>
+  </si>
+  <si>
+    <t>plot-factor</t>
   </si>
   <si>
     <t>cdf</t>
   </si>
   <si>
-    <t>nb</t>
-  </si>
-  <si>
-    <t>stat_u</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>cone_radius</t>
+    <t>ppb</t>
   </si>
   <si>
     <t>&lt;d2_sigma_over_d_y_d_pt&gt;</t>
   </si>
   <si>
-    <t>%_norm_c</t>
-  </si>
-  <si>
-    <t>%_jet_energy_c</t>
-  </si>
-  <si>
-    <t>%_dijet_nominal_0107_c</t>
-  </si>
-  <si>
-    <t>%_dijet_nominal_0001_c</t>
-  </si>
-  <si>
-    <t>%_dijet_nominal_0711_c</t>
-  </si>
-  <si>
-    <t>%_dijet_nominal_1116_c</t>
-  </si>
-  <si>
-    <t>%_dijet_nominal_1621_c</t>
-  </si>
-  <si>
-    <t>%_dijet_additional_0001_c</t>
-  </si>
-  <si>
-    <t>%_dijet_additional_0107_c</t>
-  </si>
-  <si>
-    <t>%_dijet_additional_0711_c</t>
-  </si>
-  <si>
-    <t>%_dijet_additional_1116_c</t>
-  </si>
-  <si>
-    <t>%_dijet_additional_1621_c</t>
-  </si>
-  <si>
-    <t>%_pileup_c</t>
-  </si>
-  <si>
-    <t>%_pt_spectra_0001_c</t>
-  </si>
-  <si>
-    <t>%_pt_spectra_0107_c</t>
-  </si>
-  <si>
-    <t>%_pt_spectra_0711_c</t>
-  </si>
-  <si>
-    <t>%_pt_spectra_1116_c</t>
-  </si>
-  <si>
-    <t>%_pt_spectra_1621_c</t>
-  </si>
-  <si>
-    <t>%_resolution_0001_c</t>
-  </si>
-  <si>
-    <t>%_resolution_0107_c</t>
-  </si>
-  <si>
-    <t>%_resolution_0711_c</t>
-  </si>
-  <si>
-    <t>%_resolution_1116_c</t>
-  </si>
-  <si>
-    <t>%_resolution_1621_c</t>
-  </si>
-  <si>
-    <t>%_defold_c</t>
-  </si>
-  <si>
-    <t>particles_in</t>
+    <t>nb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,9 +525,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,17 +783,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -270,7 +886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,26 +919,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,23 +954,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,195 +1095,173 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
   <cols>
-    <col min="1" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="1039" width="10.28515625" customWidth="1"/>
+    <col min="1" max="2" width="10.2844827586207" customWidth="1"/>
+    <col min="3" max="3" width="13.8534482758621" customWidth="1"/>
+    <col min="4" max="8" width="10.2844827586207" customWidth="1"/>
+    <col min="9" max="9" width="14.8534482758621" customWidth="1"/>
+    <col min="10" max="11" width="15.5689655172414" customWidth="1"/>
+    <col min="12" max="12" width="30.7112068965517" customWidth="1"/>
+    <col min="13" max="13" width="10.2844827586207" customWidth="1"/>
+    <col min="14" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="18.551724137931" customWidth="1"/>
+    <col min="17" max="21" width="31" customWidth="1"/>
+    <col min="22" max="26" width="33.2758620689655" customWidth="1"/>
+    <col min="27" max="27" width="13.448275862069" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="33" width="28.2413793103448" customWidth="1"/>
+    <col min="34" max="38" width="27.551724137931" customWidth="1"/>
+    <col min="39" max="39" width="14.426724137931" customWidth="1"/>
+    <col min="40" max="40" width="13.1422413793103" customWidth="1"/>
+    <col min="41" max="1039" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" ht="35.6" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" ht="35.6" spans="1:40">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>1960</v>
@@ -717,7 +1277,7 @@
       </c>
       <c r="H2" s="1">
         <f>2*G2/D2</f>
-        <v>6.8367346938775511E-2</v>
+        <v>0.0683673469387755</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -729,10 +1289,10 @@
         <v>0.7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1">
         <v>6.68</v>
@@ -744,7 +1304,7 @@
         <v>6.7</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -816,15 +1376,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" ht="35.6" spans="1:40">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>1960</v>
@@ -840,7 +1400,7 @@
       </c>
       <c r="H3" s="1">
         <f>2*G3/D3</f>
-        <v>7.9081632653061229E-2</v>
+        <v>0.0790816326530612</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -852,10 +1412,10 @@
         <v>0.7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1">
         <v>2.95</v>
@@ -939,15 +1499,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" ht="35.6" spans="1:40">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>1960</v>
@@ -962,8 +1522,8 @@
         <v>89.5</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H24" si="0">2*G4/D4</f>
-        <v>9.1326530612244897E-2</v>
+        <f t="shared" ref="H4:H25" si="0">2*G4/D4</f>
+        <v>0.0913265306122449</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -975,10 +1535,10 @@
         <v>0.7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1">
         <v>1.21</v>
@@ -990,7 +1550,7 @@
         <v>7.9</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1062,15 +1622,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" ht="35.6" spans="1:40">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>1960</v>
@@ -1086,7 +1646,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10510204081632653</v>
+        <v>0.105102040816327</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1098,16 +1658,16 @@
         <v>0.7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="O5" s="1">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="P5" s="1">
         <v>8.6</v>
@@ -1185,15 +1745,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" ht="35.6" spans="1:40">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1960</v>
@@ -1209,7 +1769,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.12091836734693878</v>
+        <v>0.120918367346939</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1221,16 +1781,16 @@
         <v>0.7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1">
-        <v>0.22800000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="O6" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="P6" s="1">
         <v>9.5</v>
@@ -1308,15 +1868,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" ht="35.6" spans="1:40">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>1960</v>
@@ -1332,7 +1892,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13928571428571429</v>
+        <v>0.139285714285714</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1344,16 +1904,16 @@
         <v>0.7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N7" s="1">
-        <v>9.1800000000000007E-2</v>
+        <v>0.0918</v>
       </c>
       <c r="O7" s="1">
-        <v>1.11E-2</v>
+        <v>0.0111</v>
       </c>
       <c r="P7" s="1">
         <v>10.4</v>
@@ -1410,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
@@ -1431,15 +1991,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" ht="35.6" spans="1:40">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>1960</v>
@@ -1455,7 +2015,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.16071428571428573</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1467,16 +2027,16 @@
         <v>0.7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N8" s="1">
-        <v>3.7600000000000001E-2</v>
+        <v>0.0376</v>
       </c>
       <c r="O8" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="P8" s="1">
         <v>11.5</v>
@@ -1518,7 +2078,7 @@
         <v>2.9</v>
       </c>
       <c r="AC8" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -1554,15 +2114,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" ht="35.6" spans="1:40">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>1960</v>
@@ -1578,7 +2138,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.18571428571428572</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1590,16 +2150,16 @@
         <v>0.7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N9" s="1">
-        <v>1.38E-2</v>
+        <v>0.0138</v>
       </c>
       <c r="O9" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="P9" s="1">
         <v>12.8</v>
@@ -1635,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB9" s="1">
         <v>2.7</v>
@@ -1677,15 +2237,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" ht="35.6" spans="1:40">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>1960</v>
@@ -1701,7 +2261,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.21377551020408164</v>
+        <v>0.213775510204082</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1713,16 +2273,16 @@
         <v>0.7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N10" s="1">
-        <v>5.3E-3</v>
+        <v>0.0053</v>
       </c>
       <c r="O10" s="1">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="P10" s="1">
         <v>14.2</v>
@@ -1800,15 +2360,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" ht="35.6" spans="1:40">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1960</v>
@@ -1824,7 +2384,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.24642857142857144</v>
+        <v>0.246428571428571</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1836,16 +2396,16 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N11" s="1">
-        <v>1.8400000000000001E-3</v>
+        <v>0.00184</v>
       </c>
       <c r="O11" s="2">
-        <v>4.0000000000000003E-5</v>
+        <v>4e-5</v>
       </c>
       <c r="P11" s="2">
         <v>15.9</v>
@@ -1884,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC11" s="2">
         <v>1.6</v>
@@ -1923,15 +2483,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" ht="35.6" spans="1:40">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>1960</v>
@@ -1947,7 +2507,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.28418367346938778</v>
+        <v>0.284183673469388</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1959,16 +2519,16 @@
         <v>0.7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N12" s="1">
-        <v>5.9299999999999999E-4</v>
+        <v>0.000593</v>
       </c>
       <c r="O12" s="2">
-        <v>1.1E-5</v>
+        <v>1.1e-5</v>
       </c>
       <c r="P12" s="2">
         <v>17.8</v>
@@ -2046,15 +2606,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" ht="35.6" spans="1:40">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>1960</v>
@@ -2070,7 +2630,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.32755102040816325</v>
+        <v>0.327551020408163</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2082,19 +2642,19 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N13" s="1">
-        <v>1.75E-4</v>
+        <v>0.000175</v>
       </c>
       <c r="O13" s="2">
-        <v>6.0000000000000002E-6</v>
+        <v>6e-6</v>
       </c>
       <c r="P13" s="2">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="Q13" s="2">
         <v>4.2</v>
@@ -2169,15 +2729,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" ht="35.6" spans="1:40">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>1960</v>
@@ -2193,7 +2753,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.37755102040816324</v>
+        <v>0.377551020408163</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2205,16 +2765,16 @@
         <v>0.7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N14" s="1">
-        <v>5.0599999999999997E-5</v>
+        <v>5.06e-5</v>
       </c>
       <c r="O14" s="2">
-        <v>2.6000000000000001E-6</v>
+        <v>2.6e-6</v>
       </c>
       <c r="P14" s="2">
         <v>22.4</v>
@@ -2292,15 +2852,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" ht="35.6" spans="1:40">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>1960</v>
@@ -2316,7 +2876,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.43520408163265306</v>
+        <v>0.435204081632653</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2328,22 +2888,22 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N15" s="1">
-        <v>1.24E-5</v>
+        <v>1.24e-5</v>
       </c>
       <c r="O15" s="2">
-        <v>1.1000000000000001E-6</v>
+        <v>1.1e-6</v>
       </c>
       <c r="P15" s="2">
         <v>25.1</v>
       </c>
       <c r="Q15" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -2379,7 +2939,7 @@
         <v>1.5</v>
       </c>
       <c r="AC15" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -2415,15 +2975,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" ht="35.6" spans="1:40">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>1960</v>
@@ -2439,7 +2999,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0.50204081632653064</v>
+        <v>0.502040816326531</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -2451,16 +3011,16 @@
         <v>0.7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N16" s="1">
-        <v>2.8100000000000002E-6</v>
+        <v>2.81e-6</v>
       </c>
       <c r="O16" s="2">
-        <v>5.3000000000000001E-7</v>
+        <v>5.3e-7</v>
       </c>
       <c r="P16" s="2">
         <v>28.3</v>
@@ -2502,7 +3062,7 @@
         <v>1.4</v>
       </c>
       <c r="AC16" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -2538,15 +3098,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" ht="35.6" spans="1:40">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
         <v>1960</v>
@@ -2562,7 +3122,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0.62602040816326532</v>
+        <v>0.626020408163265</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2574,16 +3134,16 @@
         <v>0.7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N17" s="1">
-        <v>1.8099999999999999E-7</v>
+        <v>1.81e-7</v>
       </c>
       <c r="O17" s="2">
-        <v>8.0999999999999997E-8</v>
+        <v>8.1e-8</v>
       </c>
       <c r="P17" s="2">
         <v>34</v>
@@ -2625,7 +3185,7 @@
         <v>1.4</v>
       </c>
       <c r="AC17" s="2">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -2640,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="AI17" s="2">
         <v>0</v>
@@ -2661,15 +3221,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" ht="35.6" spans="1:40">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>1960</v>
@@ -2685,7 +3245,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>6.8367346938775511E-2</v>
+        <v>0.0683673469387755</v>
       </c>
       <c r="I18" s="1">
         <v>0.1</v>
@@ -2697,10 +3257,10 @@
         <v>0.7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N18" s="1">
         <v>6.28</v>
@@ -2715,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -2784,15 +3344,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" ht="35.6" spans="1:40">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>1960</v>
@@ -2808,7 +3368,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>7.9081632653061229E-2</v>
+        <v>0.0790816326530612</v>
       </c>
       <c r="I19" s="1">
         <v>0.1</v>
@@ -2820,10 +3380,10 @@
         <v>0.7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N19" s="1">
         <v>2.7</v>
@@ -2838,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -2907,15 +3467,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" ht="35.6" spans="1:40">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>1960</v>
@@ -2931,7 +3491,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>9.1326530612244897E-2</v>
+        <v>0.0913265306122449</v>
       </c>
       <c r="I20" s="1">
         <v>0.1</v>
@@ -2943,25 +3503,25 @@
         <v>0.7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N20" s="1">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="O20" s="1">
         <v>0.01</v>
       </c>
       <c r="P20" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -3030,15 +3590,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" ht="35.6" spans="1:40">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>1960</v>
@@ -3054,7 +3614,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.10510204081632653</v>
+        <v>0.105102040816327</v>
       </c>
       <c r="I21" s="1">
         <v>0.1</v>
@@ -3066,19 +3626,19 @@
         <v>0.7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N21" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="O21" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="P21" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -3153,15 +3713,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" ht="35.6" spans="1:40">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>1960</v>
@@ -3177,7 +3737,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.12091836734693878</v>
+        <v>0.120918367346939</v>
       </c>
       <c r="I22" s="1">
         <v>0.1</v>
@@ -3189,16 +3749,16 @@
         <v>0.7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N22" s="1">
-        <v>0.20699999999999999</v>
+        <v>0.207</v>
       </c>
       <c r="O22" s="1">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="P22" s="1">
         <v>9.5</v>
@@ -3276,15 +3836,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" ht="35.6" spans="1:40">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>1960</v>
@@ -3300,7 +3860,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.13928571428571429</v>
+        <v>0.139285714285714</v>
       </c>
       <c r="I23" s="1">
         <v>0.1</v>
@@ -3312,16 +3872,16 @@
         <v>0.7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N23" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.085</v>
       </c>
       <c r="O23" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P23" s="1">
         <v>10.3</v>
@@ -3399,15 +3959,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" ht="35.6" spans="1:40">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>1960</v>
@@ -3423,7 +3983,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.16071428571428573</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I24" s="1">
         <v>0.1</v>
@@ -3435,16 +3995,16 @@
         <v>0.7</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N24" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="O24" s="1">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="P24" s="1">
         <v>11.2</v>
@@ -3522,15 +4082,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" ht="35.6" spans="1:40">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
         <v>1960</v>
@@ -3545,8 +4105,8 @@
         <v>182</v>
       </c>
       <c r="H25" s="1">
-        <f>2*G25/D25</f>
-        <v>0.18571428571428572</v>
+        <f t="shared" si="0"/>
+        <v>0.185714285714286</v>
       </c>
       <c r="I25" s="1">
         <v>0.1</v>
@@ -3558,16 +4118,16 @@
         <v>0.7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N25" s="1">
-        <v>1.24E-2</v>
+        <v>0.0124</v>
       </c>
       <c r="O25" s="1">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="P25" s="1">
         <v>12.3</v>
@@ -3603,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB25" s="1">
         <v>2.6</v>
@@ -3645,15 +4205,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" ht="35.6" spans="1:40">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>1960</v>
@@ -3668,8 +4228,8 @@
         <v>209.5</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H46" si="1">2*G26/D26</f>
-        <v>0.21377551020408164</v>
+        <f t="shared" ref="H26:H47" si="1">2*G26/D26</f>
+        <v>0.213775510204082</v>
       </c>
       <c r="I26" s="1">
         <v>0.1</v>
@@ -3681,16 +4241,16 @@
         <v>0.7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N26" s="1">
-        <v>4.5500000000000002E-3</v>
+        <v>0.00455</v>
       </c>
       <c r="O26" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>5e-5</v>
       </c>
       <c r="P26" s="2">
         <v>13.7</v>
@@ -3768,15 +4328,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" ht="35.6" spans="1:40">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>1960</v>
@@ -3792,7 +4352,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>0.24642857142857144</v>
+        <v>0.246428571428571</v>
       </c>
       <c r="I27" s="1">
         <v>0.1</v>
@@ -3804,16 +4364,16 @@
         <v>0.7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N27" s="1">
-        <v>1.56E-3</v>
+        <v>0.00156</v>
       </c>
       <c r="O27" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1e-5</v>
       </c>
       <c r="P27" s="2">
         <v>15.3</v>
@@ -3852,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC27" s="2">
         <v>0</v>
@@ -3873,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AJ27" s="2">
         <v>0</v>
@@ -3891,15 +4451,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" ht="35.6" spans="1:40">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>1960</v>
@@ -3915,7 +4475,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>0.28418367346938778</v>
+        <v>0.284183673469388</v>
       </c>
       <c r="I28" s="1">
         <v>0.1</v>
@@ -3927,16 +4487,16 @@
         <v>0.7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N28" s="1">
-        <v>4.9399999999999997E-4</v>
+        <v>0.000494</v>
       </c>
       <c r="O28" s="2">
-        <v>6.0000000000000002E-6</v>
+        <v>6e-6</v>
       </c>
       <c r="P28" s="2">
         <v>17.3</v>
@@ -3996,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AJ28" s="2">
         <v>0</v>
@@ -4014,15 +4574,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" ht="35.6" spans="1:40">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>1960</v>
@@ -4038,7 +4598,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>0.32755102040816325</v>
+        <v>0.327551020408163</v>
       </c>
       <c r="I29" s="1">
         <v>0.1</v>
@@ -4050,25 +4610,25 @@
         <v>0.7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N29" s="1">
-        <v>1.4200000000000001E-4</v>
+        <v>0.000142</v>
       </c>
       <c r="O29" s="2">
-        <v>1.9999999999999999E-6</v>
+        <v>2e-6</v>
       </c>
       <c r="P29" s="2">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -4137,15 +4697,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" ht="35.6" spans="1:40">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>1960</v>
@@ -4161,7 +4721,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>0.37755102040816324</v>
+        <v>0.377551020408163</v>
       </c>
       <c r="I30" s="1">
         <v>0.1</v>
@@ -4173,16 +4733,16 @@
         <v>0.7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N30" s="1">
-        <v>3.5299999999999997E-5</v>
+        <v>3.53e-5</v>
       </c>
       <c r="O30" s="2">
-        <v>7.9999999999999996E-7</v>
+        <v>8e-7</v>
       </c>
       <c r="P30" s="2">
         <v>22.6</v>
@@ -4191,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -4260,15 +4820,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" ht="35.6" spans="1:40">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
         <v>1960</v>
@@ -4284,7 +4844,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>0.43520408163265306</v>
+        <v>0.435204081632653</v>
       </c>
       <c r="I31" s="1">
         <v>0.1</v>
@@ -4296,16 +4856,16 @@
         <v>0.7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N31" s="1">
-        <v>6.8700000000000003E-6</v>
+        <v>6.87e-6</v>
       </c>
       <c r="O31" s="2">
-        <v>3.4999999999999998E-7</v>
+        <v>3.5e-7</v>
       </c>
       <c r="P31" s="2">
         <v>26.1</v>
@@ -4365,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AJ31" s="2">
         <v>0</v>
@@ -4383,15 +4943,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" ht="35.6" spans="1:40">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1">
         <v>1960</v>
@@ -4407,7 +4967,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>0.50204081632653064</v>
+        <v>0.502040816326531</v>
       </c>
       <c r="I32" s="1">
         <v>0.1</v>
@@ -4419,16 +4979,16 @@
         <v>0.7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N32" s="1">
-        <v>1.22E-6</v>
+        <v>1.22e-6</v>
       </c>
       <c r="O32" s="2">
-        <v>1.3E-7</v>
+        <v>1.3e-7</v>
       </c>
       <c r="P32" s="2">
         <v>30.6</v>
@@ -4506,15 +5066,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" ht="35.6" spans="1:40">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
         <v>1960</v>
@@ -4530,7 +5090,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>0.62602040816326532</v>
+        <v>0.626020408163265</v>
       </c>
       <c r="I33" s="1">
         <v>0.1</v>
@@ -4542,19 +5102,19 @@
         <v>0.7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N33" s="1">
-        <v>7.0799999999999999E-8</v>
+        <v>7.08e-8</v>
       </c>
       <c r="O33" s="2">
-        <v>1.9700000000000001E-8</v>
+        <v>1.97e-8</v>
       </c>
       <c r="P33" s="2">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -4629,15 +5189,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" ht="35.6" spans="1:40">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1">
         <v>1960</v>
@@ -4653,22 +5213,22 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>6.8367346938775511E-2</v>
+        <v>0.0683673469387755</v>
       </c>
       <c r="I34" s="1">
         <v>0.7</v>
       </c>
       <c r="J34" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K34" s="1">
         <v>0.7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N34" s="1">
         <v>5.32</v>
@@ -4752,15 +5312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" ht="35.6" spans="1:40">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1">
         <v>1960</v>
@@ -4776,31 +5336,31 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>7.9081632653061229E-2</v>
+        <v>0.0790816326530612</v>
       </c>
       <c r="I35" s="1">
         <v>0.7</v>
       </c>
       <c r="J35" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K35" s="1">
         <v>0.7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N35" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="O35" s="1">
         <v>0.02</v>
       </c>
       <c r="P35" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
@@ -4836,7 +5396,7 @@
         <v>1.8</v>
       </c>
       <c r="AB35" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
@@ -4875,15 +5435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" ht="35.6" spans="1:40">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
         <v>1960</v>
@@ -4899,31 +5459,31 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>9.1326530612244897E-2</v>
+        <v>0.0913265306122449</v>
       </c>
       <c r="I36" s="1">
         <v>0.7</v>
       </c>
       <c r="J36" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K36" s="1">
         <v>0.7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N36" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.983</v>
       </c>
       <c r="O36" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="P36" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
@@ -4998,15 +5558,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" ht="35.6" spans="1:40">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1">
         <v>1960</v>
@@ -5022,31 +5582,31 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>0.10510204081632653</v>
+        <v>0.105102040816327</v>
       </c>
       <c r="I37" s="1">
         <v>0.7</v>
       </c>
       <c r="J37" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K37" s="1">
         <v>0.7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N37" s="1">
-        <v>0.39500000000000002</v>
+        <v>0.395</v>
       </c>
       <c r="O37" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="P37" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
@@ -5055,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
@@ -5121,15 +5681,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" ht="35.6" spans="1:40">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1">
         <v>1960</v>
@@ -5145,28 +5705,28 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>0.12091836734693878</v>
+        <v>0.120918367346939</v>
       </c>
       <c r="I38" s="1">
         <v>0.7</v>
       </c>
       <c r="J38" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K38" s="1">
         <v>0.7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N38" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.162</v>
       </c>
       <c r="O38" s="1">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="P38" s="1">
         <v>9.9</v>
@@ -5178,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
@@ -5244,15 +5804,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" ht="35.6" spans="1:40">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1">
         <v>1960</v>
@@ -5268,28 +5828,28 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>0.13928571428571429</v>
+        <v>0.139285714285714</v>
       </c>
       <c r="I39" s="1">
         <v>0.7</v>
       </c>
       <c r="J39" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K39" s="1">
         <v>0.7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N39" s="1">
-        <v>6.3399999999999998E-2</v>
+        <v>0.0634</v>
       </c>
       <c r="O39" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P39" s="1">
         <v>10.8</v>
@@ -5367,15 +5927,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" ht="35.6" spans="1:40">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>1960</v>
@@ -5391,28 +5951,28 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>0.16071428571428573</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I40" s="1">
         <v>0.7</v>
       </c>
       <c r="J40" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K40" s="1">
         <v>0.7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N40" s="1">
-        <v>2.3699999999999999E-2</v>
+        <v>0.0237</v>
       </c>
       <c r="O40" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="P40" s="1">
         <v>12</v>
@@ -5475,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AK40" s="1">
         <v>0</v>
@@ -5490,15 +6050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" ht="35.6" spans="1:40">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>1960</v>
@@ -5514,28 +6074,28 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>0.18571428571428572</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="I41" s="1">
         <v>0.7</v>
       </c>
       <c r="J41" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K41" s="1">
         <v>0.7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N41" s="1">
-        <v>8.4100000000000008E-3</v>
+        <v>0.00841</v>
       </c>
       <c r="O41" s="2">
-        <v>9.0000000000000006E-5</v>
+        <v>9e-5</v>
       </c>
       <c r="P41" s="2">
         <v>13.7</v>
@@ -5598,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
@@ -5613,15 +6173,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" ht="35.6" spans="1:40">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1">
         <v>1960</v>
@@ -5637,28 +6197,28 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>0.21377551020408164</v>
+        <v>0.213775510204082</v>
       </c>
       <c r="I42" s="1">
         <v>0.7</v>
       </c>
       <c r="J42" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K42" s="1">
         <v>0.7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N42" s="1">
-        <v>2.81E-3</v>
+        <v>0.00281</v>
       </c>
       <c r="O42" s="2">
-        <v>6.9999999999999994E-5</v>
+        <v>7e-5</v>
       </c>
       <c r="P42" s="2">
         <v>15.8</v>
@@ -5694,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB42" s="2">
         <v>2.8</v>
@@ -5721,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
@@ -5736,15 +6296,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" ht="35.6" spans="1:40">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
         <v>1960</v>
@@ -5760,28 +6320,28 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>0.24642857142857144</v>
+        <v>0.246428571428571</v>
       </c>
       <c r="I43" s="1">
         <v>0.7</v>
       </c>
       <c r="J43" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K43" s="1">
         <v>0.7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N43" s="1">
-        <v>8.7799999999999998E-4</v>
+        <v>0.000878</v>
       </c>
       <c r="O43" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1e-5</v>
       </c>
       <c r="P43" s="2">
         <v>18.7</v>
@@ -5793,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -5859,15 +6419,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" ht="35.6" spans="1:40">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>1960</v>
@@ -5883,28 +6443,28 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>0.28418367346938778</v>
+        <v>0.284183673469388</v>
       </c>
       <c r="I44" s="1">
         <v>0.7</v>
       </c>
       <c r="J44" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K44" s="1">
         <v>0.7</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N44" s="1">
-        <v>2.3499999999999999E-4</v>
+        <v>0.000235</v>
       </c>
       <c r="O44" s="2">
-        <v>7.9999999999999996E-6</v>
+        <v>8e-6</v>
       </c>
       <c r="P44" s="2">
         <v>22.5</v>
@@ -5982,15 +6542,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" ht="35.6" spans="1:40">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>1960</v>
@@ -6006,28 +6566,28 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="1"/>
-        <v>0.32755102040816325</v>
+        <v>0.327551020408163</v>
       </c>
       <c r="I45" s="1">
         <v>0.7</v>
       </c>
       <c r="J45" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K45" s="1">
         <v>0.7</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N45" s="1">
-        <v>5.3699999999999997E-5</v>
+        <v>5.37e-5</v>
       </c>
       <c r="O45" s="2">
-        <v>1.7E-6</v>
+        <v>1.7e-6</v>
       </c>
       <c r="P45" s="2">
         <v>27.6</v>
@@ -6066,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="AB45" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC45" s="2">
         <v>0</v>
@@ -6090,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="AK45" s="2">
         <v>0</v>
@@ -6105,15 +6665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" ht="35.6" spans="1:40">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
         <v>1960</v>
@@ -6129,28 +6689,28 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="1"/>
-        <v>0.37755102040816324</v>
+        <v>0.377551020408163</v>
       </c>
       <c r="I46" s="1">
         <v>0.7</v>
       </c>
       <c r="J46" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K46" s="1">
         <v>0.7</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N46" s="1">
-        <v>9.3000000000000007E-6</v>
+        <v>9.3e-6</v>
       </c>
       <c r="O46" s="2">
-        <v>5.4000000000000002E-7</v>
+        <v>5.4e-7</v>
       </c>
       <c r="P46" s="2">
         <v>34.4</v>
@@ -6189,7 +6749,7 @@
         <v>0.9</v>
       </c>
       <c r="AB46" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AC46" s="2">
         <v>0</v>
@@ -6228,15 +6788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" ht="35.6" spans="1:40">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>1960</v>
@@ -6251,29 +6811,29 @@
         <v>426.5</v>
       </c>
       <c r="H47" s="1">
-        <f>2*G47/D47</f>
-        <v>0.43520408163265306</v>
+        <f t="shared" si="1"/>
+        <v>0.435204081632653</v>
       </c>
       <c r="I47" s="1">
         <v>0.7</v>
       </c>
       <c r="J47" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K47" s="1">
         <v>0.7</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N47" s="1">
-        <v>1.35E-6</v>
+        <v>1.35e-6</v>
       </c>
       <c r="O47" s="2">
-        <v>1.8E-7</v>
+        <v>1.8e-7</v>
       </c>
       <c r="P47" s="2">
         <v>43.4</v>
@@ -6351,15 +6911,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" ht="35.6" spans="1:40">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1">
         <v>1960</v>
@@ -6375,28 +6935,28 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:H73" si="2">2*G48/D48</f>
-        <v>0.50204081632653064</v>
+        <v>0.502040816326531</v>
       </c>
       <c r="I48" s="1">
         <v>0.7</v>
       </c>
       <c r="J48" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K48" s="1">
         <v>0.7</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N48" s="1">
-        <v>1.6299999999999999E-7</v>
+        <v>1.63e-7</v>
       </c>
       <c r="O48" s="2">
-        <v>5.5000000000000003E-8</v>
+        <v>5.5e-8</v>
       </c>
       <c r="P48" s="2">
         <v>55.4</v>
@@ -6435,7 +6995,7 @@
         <v>0.9</v>
       </c>
       <c r="AB48" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC48" s="2">
         <v>0</v>
@@ -6444,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AF48" s="2">
         <v>0</v>
@@ -6474,15 +7034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" ht="35.6" spans="1:40">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D49" s="1">
         <v>1960</v>
@@ -6498,10 +7058,10 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>6.8367346938775511E-2</v>
+        <v>0.0683673469387755</v>
       </c>
       <c r="I49" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J49" s="1">
         <v>1.6</v>
@@ -6510,10 +7070,10 @@
         <v>0.7</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N49" s="1">
         <v>4.57</v>
@@ -6594,18 +7154,18 @@
         <v>6</v>
       </c>
       <c r="AN49" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50" ht="35.6" spans="1:40">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D50" s="1">
         <v>1960</v>
@@ -6621,10 +7181,10 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>7.9081632653061229E-2</v>
+        <v>0.0790816326530612</v>
       </c>
       <c r="I50" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J50" s="1">
         <v>1.6</v>
@@ -6633,10 +7193,10 @@
         <v>0.7</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N50" s="1">
         <v>1.81</v>
@@ -6717,18 +7277,18 @@
         <v>6</v>
       </c>
       <c r="AN50" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="51" ht="35.6" spans="1:40">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1">
         <v>1960</v>
@@ -6744,10 +7304,10 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>9.1326530612244897E-2</v>
+        <v>0.0913265306122449</v>
       </c>
       <c r="I51" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J51" s="1">
         <v>1.6</v>
@@ -6756,16 +7316,16 @@
         <v>0.7</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N51" s="1">
-        <v>0.73899999999999999</v>
+        <v>0.739</v>
       </c>
       <c r="O51" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="P51" s="1">
         <v>9.6</v>
@@ -6840,18 +7400,18 @@
         <v>6</v>
       </c>
       <c r="AN51" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="52" ht="35.6" spans="1:40">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1">
         <v>1960</v>
@@ -6867,10 +7427,10 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>0.10510204081632653</v>
+        <v>0.105102040816327</v>
       </c>
       <c r="I52" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J52" s="1">
         <v>1.6</v>
@@ -6879,16 +7439,16 @@
         <v>0.7</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N52" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="O52" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="P52" s="1">
         <v>10.5</v>
@@ -6963,18 +7523,18 @@
         <v>6</v>
       </c>
       <c r="AN52" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="53" ht="35.6" spans="1:40">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1">
         <v>1960</v>
@@ -6990,10 +7550,10 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
-        <v>0.12091836734693878</v>
+        <v>0.120918367346939</v>
       </c>
       <c r="I53" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J53" s="1">
         <v>1.6</v>
@@ -7002,16 +7562,16 @@
         <v>0.7</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N53" s="1">
         <v>0.113</v>
       </c>
       <c r="O53" s="1">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="P53" s="1">
         <v>11.6</v>
@@ -7086,18 +7646,18 @@
         <v>6</v>
       </c>
       <c r="AN53" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54" ht="35.6" spans="1:40">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1">
         <v>1960</v>
@@ -7113,10 +7673,10 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
-        <v>0.13928571428571429</v>
+        <v>0.139285714285714</v>
       </c>
       <c r="I54" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J54" s="1">
         <v>1.6</v>
@@ -7125,16 +7685,16 @@
         <v>0.7</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N54" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>0.0409</v>
       </c>
       <c r="O54" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="P54" s="1">
         <v>13.1</v>
@@ -7173,7 +7733,7 @@
         <v>1.5</v>
       </c>
       <c r="AB54" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AC54" s="1">
         <v>0</v>
@@ -7209,18 +7769,18 @@
         <v>6</v>
       </c>
       <c r="AN54" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="55" ht="35.6" spans="1:40">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1">
         <v>1960</v>
@@ -7236,10 +7796,10 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
-        <v>0.16071428571428573</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I55" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J55" s="1">
         <v>1.6</v>
@@ -7248,16 +7808,16 @@
         <v>0.7</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N55" s="1">
-        <v>1.38E-2</v>
+        <v>0.0138</v>
       </c>
       <c r="O55" s="1">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="P55" s="1">
         <v>15.2</v>
@@ -7296,7 +7856,7 @@
         <v>1.5</v>
       </c>
       <c r="AB55" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AC55" s="1">
         <v>0</v>
@@ -7332,18 +7892,18 @@
         <v>6</v>
       </c>
       <c r="AN55" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56" ht="35.6" spans="1:40">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1">
         <v>1960</v>
@@ -7359,10 +7919,10 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
-        <v>0.18571428571428572</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="I56" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J56" s="1">
         <v>1.6</v>
@@ -7371,16 +7931,16 @@
         <v>0.7</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N56" s="1">
-        <v>4.13E-3</v>
+        <v>0.00413</v>
       </c>
       <c r="O56" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>6e-5</v>
       </c>
       <c r="P56" s="2">
         <v>18</v>
@@ -7395,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
@@ -7446,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AL56" s="2">
         <v>0</v>
@@ -7455,18 +8015,18 @@
         <v>6</v>
       </c>
       <c r="AN56" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="57" ht="35.6" spans="1:40">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D57" s="1">
         <v>1960</v>
@@ -7482,10 +8042,10 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
-        <v>0.21377551020408164</v>
+        <v>0.213775510204082</v>
       </c>
       <c r="I57" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J57" s="1">
         <v>1.6</v>
@@ -7494,16 +8054,16 @@
         <v>0.7</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N57" s="1">
-        <v>1.15E-3</v>
+        <v>0.00115</v>
       </c>
       <c r="O57" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1e-5</v>
       </c>
       <c r="P57" s="2">
         <v>21.7</v>
@@ -7533,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z57" s="2">
         <v>0</v>
@@ -7542,7 +8102,7 @@
         <v>1.4</v>
       </c>
       <c r="AB57" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AC57" s="2">
         <v>0</v>
@@ -7578,18 +8138,18 @@
         <v>6</v>
       </c>
       <c r="AN57" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58" ht="35.6" spans="1:40">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D58" s="1">
         <v>1960</v>
@@ -7605,10 +8165,10 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="2"/>
-        <v>0.24642857142857144</v>
+        <v>0.246428571428571</v>
       </c>
       <c r="I58" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J58" s="1">
         <v>1.6</v>
@@ -7617,16 +8177,16 @@
         <v>0.7</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N58" s="1">
-        <v>2.6600000000000001E-4</v>
+        <v>0.000266</v>
       </c>
       <c r="O58" s="2">
-        <v>6.9999999999999999E-6</v>
+        <v>7e-6</v>
       </c>
       <c r="P58" s="2">
         <v>26.6</v>
@@ -7665,7 +8225,7 @@
         <v>1.4</v>
       </c>
       <c r="AB58" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AC58" s="2">
         <v>0</v>
@@ -7677,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG58" s="2">
         <v>0</v>
@@ -7701,18 +8261,18 @@
         <v>6</v>
       </c>
       <c r="AN58" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="59" ht="35.6" spans="1:40">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D59" s="1">
         <v>1960</v>
@@ -7728,10 +8288,10 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="2"/>
-        <v>0.28418367346938778</v>
+        <v>0.284183673469388</v>
       </c>
       <c r="I59" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J59" s="1">
         <v>1.6</v>
@@ -7740,16 +8300,16 @@
         <v>0.7</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N59" s="1">
-        <v>5.0699999999999999E-5</v>
+        <v>5.07e-5</v>
       </c>
       <c r="O59" s="2">
-        <v>5.5999999999999997E-6</v>
+        <v>5.6e-6</v>
       </c>
       <c r="P59" s="2">
         <v>33.1</v>
@@ -7824,18 +8384,18 @@
         <v>6</v>
       </c>
       <c r="AN59" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60" ht="35.6" spans="1:40">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1">
         <v>1960</v>
@@ -7851,10 +8411,10 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="2"/>
-        <v>0.32755102040816325</v>
+        <v>0.327551020408163</v>
       </c>
       <c r="I60" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J60" s="1">
         <v>1.6</v>
@@ -7863,16 +8423,16 @@
         <v>0.7</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N60" s="1">
-        <v>8.1899999999999995E-6</v>
+        <v>8.19e-6</v>
       </c>
       <c r="O60" s="2">
-        <v>5.2E-7</v>
+        <v>5.2e-7</v>
       </c>
       <c r="P60" s="2">
         <v>41.8</v>
@@ -7947,18 +8507,18 @@
         <v>6</v>
       </c>
       <c r="AN60" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="61" ht="35.6" spans="1:40">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
         <v>1960</v>
@@ -7974,10 +8534,10 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="2"/>
-        <v>0.37755102040816324</v>
+        <v>0.377551020408163</v>
       </c>
       <c r="I61" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J61" s="1">
         <v>1.6</v>
@@ -7986,16 +8546,16 @@
         <v>0.7</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N61" s="1">
-        <v>9.3600000000000002E-7</v>
+        <v>9.36e-7</v>
       </c>
       <c r="O61" s="2">
-        <v>1.5300000000000001E-7</v>
+        <v>1.53e-7</v>
       </c>
       <c r="P61" s="2">
         <v>53.4</v>
@@ -8010,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="U61" s="2">
         <v>0</v>
@@ -8046,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="2">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AG61" s="2">
         <v>0</v>
@@ -8070,18 +8630,18 @@
         <v>6</v>
       </c>
       <c r="AN61" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62" ht="35.6" spans="1:40">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1">
         <v>1960</v>
@@ -8097,10 +8657,10 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="2"/>
-        <v>0.43520408163265306</v>
+        <v>0.435204081632653</v>
       </c>
       <c r="I62" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J62" s="1">
         <v>1.6</v>
@@ -8109,16 +8669,16 @@
         <v>0.7</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N62" s="1">
-        <v>6.6699999999999995E-8</v>
+        <v>6.67e-8</v>
       </c>
       <c r="O62" s="2">
-        <v>3.4E-8</v>
+        <v>3.4e-8</v>
       </c>
       <c r="P62" s="2">
         <v>68.8</v>
@@ -8193,18 +8753,18 @@
         <v>6</v>
       </c>
       <c r="AN62" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="63" ht="35.6" spans="1:40">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1">
         <v>1960</v>
@@ -8220,7 +8780,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" si="2"/>
-        <v>6.8367346938775511E-2</v>
+        <v>0.0683673469387755</v>
       </c>
       <c r="I63" s="1">
         <v>1.6</v>
@@ -8232,10 +8792,10 @@
         <v>0.7</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N63" s="1">
         <v>2.66</v>
@@ -8280,7 +8840,7 @@
         <v>2.5</v>
       </c>
       <c r="AB63" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AC63" s="1">
         <v>0</v>
@@ -8316,18 +8876,18 @@
         <v>6</v>
       </c>
       <c r="AN63" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="64" ht="35.6" spans="1:40">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D64" s="1">
         <v>1960</v>
@@ -8343,7 +8903,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" si="2"/>
-        <v>7.9081632653061229E-2</v>
+        <v>0.0790816326530612</v>
       </c>
       <c r="I64" s="1">
         <v>1.6</v>
@@ -8355,10 +8915,10 @@
         <v>0.7</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
@@ -8400,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB64" s="1">
         <v>3.7</v>
@@ -8439,18 +8999,18 @@
         <v>6</v>
       </c>
       <c r="AN64" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="65" ht="35.6" spans="1:40">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1">
         <v>1960</v>
@@ -8466,7 +9026,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="2"/>
-        <v>9.1326530612244897E-2</v>
+        <v>0.0913265306122449</v>
       </c>
       <c r="I65" s="1">
         <v>1.6</v>
@@ -8478,16 +9038,16 @@
         <v>0.7</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N65" s="1">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="O65" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="P65" s="1">
         <v>12</v>
@@ -8562,18 +9122,18 @@
         <v>6</v>
       </c>
       <c r="AN65" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="66" ht="35.6" spans="1:40">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1">
         <v>1960</v>
@@ -8589,7 +9149,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="2"/>
-        <v>0.10510204081632653</v>
+        <v>0.105102040816327</v>
       </c>
       <c r="I66" s="1">
         <v>1.6</v>
@@ -8601,16 +9161,16 @@
         <v>0.7</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N66" s="1">
         <v>0.127</v>
       </c>
       <c r="O66" s="1">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="P66" s="1">
         <v>13.8</v>
@@ -8685,18 +9245,18 @@
         <v>6</v>
       </c>
       <c r="AN66" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="67" ht="35.6" spans="1:40">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1">
         <v>1960</v>
@@ -8712,7 +9272,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" si="2"/>
-        <v>0.12091836734693878</v>
+        <v>0.120918367346939</v>
       </c>
       <c r="I67" s="1">
         <v>1.6</v>
@@ -8724,19 +9284,19 @@
         <v>0.7</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N67" s="1">
-        <v>4.1200000000000001E-2</v>
+        <v>0.0412</v>
       </c>
       <c r="O67" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P67" s="1">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="Q67" s="1">
         <v>0</v>
@@ -8808,18 +9368,18 @@
         <v>6</v>
       </c>
       <c r="AN67" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="68" ht="35.6" spans="1:40">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
         <v>1960</v>
@@ -8835,7 +9395,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" si="2"/>
-        <v>0.13928571428571429</v>
+        <v>0.139285714285714</v>
       </c>
       <c r="I68" s="1">
         <v>1.6</v>
@@ -8847,16 +9407,16 @@
         <v>0.7</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N68" s="1">
-        <v>1.15E-2</v>
+        <v>0.0115</v>
       </c>
       <c r="O68" s="1">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="P68" s="1">
         <v>19.3</v>
@@ -8931,18 +9491,18 @@
         <v>6</v>
       </c>
       <c r="AN68" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="69" ht="35.6" spans="1:40">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1">
         <v>1960</v>
@@ -8958,7 +9518,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" si="2"/>
-        <v>0.16071428571428573</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I69" s="1">
         <v>1.6</v>
@@ -8970,16 +9530,16 @@
         <v>0.7</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N69" s="1">
-        <v>2.7799999999999999E-3</v>
+        <v>0.00278</v>
       </c>
       <c r="O69" s="2">
-        <v>6.9999999999999994E-5</v>
+        <v>7e-5</v>
       </c>
       <c r="P69" s="2">
         <v>23.8</v>
@@ -9054,18 +9614,18 @@
         <v>6</v>
       </c>
       <c r="AN69" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="70" ht="35.6" spans="1:40">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1">
         <v>1960</v>
@@ -9081,7 +9641,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="2"/>
-        <v>0.18571428571428572</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="I70" s="1">
         <v>1.6</v>
@@ -9093,16 +9653,16 @@
         <v>0.7</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N70" s="1">
-        <v>5.44E-4</v>
+        <v>0.000544</v>
       </c>
       <c r="O70" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1e-5</v>
       </c>
       <c r="P70" s="2">
         <v>30</v>
@@ -9135,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AA70" s="2">
         <v>2.1</v>
@@ -9177,18 +9737,18 @@
         <v>6</v>
       </c>
       <c r="AN70" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="71" ht="35.6" spans="1:40">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D71" s="1">
         <v>1960</v>
@@ -9204,7 +9764,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" si="2"/>
-        <v>0.21377551020408164</v>
+        <v>0.213775510204082</v>
       </c>
       <c r="I71" s="1">
         <v>1.6</v>
@@ -9216,16 +9776,16 @@
         <v>0.7</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N71" s="1">
-        <v>7.8899999999999993E-5</v>
+        <v>7.89e-5</v>
       </c>
       <c r="O71" s="2">
-        <v>6.9E-6</v>
+        <v>6.9e-6</v>
       </c>
       <c r="P71" s="2">
         <v>38.1</v>
@@ -9261,7 +9821,7 @@
         <v>10.1</v>
       </c>
       <c r="AA71" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AB71" s="2">
         <v>5</v>
@@ -9300,18 +9860,18 @@
         <v>6</v>
       </c>
       <c r="AN71" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="72" ht="35.6" spans="1:40">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D72" s="1">
         <v>1960</v>
@@ -9327,7 +9887,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" si="2"/>
-        <v>0.24642857142857144</v>
+        <v>0.246428571428571</v>
       </c>
       <c r="I72" s="1">
         <v>1.6</v>
@@ -9339,16 +9899,16 @@
         <v>0.7</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N72" s="1">
-        <v>8.4100000000000008E-6</v>
+        <v>8.41e-6</v>
       </c>
       <c r="O72" s="2">
-        <v>6.0999999999999998E-7</v>
+        <v>6.1e-7</v>
       </c>
       <c r="P72" s="2">
         <v>49.2</v>
@@ -9417,24 +9977,24 @@
         <v>0</v>
       </c>
       <c r="AL72" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AM72" s="1">
         <v>6</v>
       </c>
       <c r="AN72" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="73" ht="35.6" spans="1:40">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D73" s="1">
         <v>1960</v>
@@ -9450,7 +10010,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" si="2"/>
-        <v>0.28418367346938778</v>
+        <v>0.284183673469388</v>
       </c>
       <c r="I73" s="1">
         <v>1.6</v>
@@ -9462,19 +10022,19 @@
         <v>0.7</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N73" s="1">
-        <v>5.0800000000000005E-7</v>
+        <v>5.08e-7</v>
       </c>
       <c r="O73" s="2">
-        <v>1.3899999999999999E-7</v>
+        <v>1.39e-7</v>
       </c>
       <c r="P73" s="2">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="Q73" s="2">
         <v>0</v>
@@ -9546,10 +10106,10 @@
         <v>6</v>
       </c>
       <c r="AN73" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="74" ht="35.6" spans="1:40">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9591,7 +10151,7 @@
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
     </row>
-    <row r="75" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" ht="35.6" spans="1:40">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9633,7 +10193,7 @@
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
     </row>
-    <row r="76" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" ht="35.6" spans="1:40">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9675,7 +10235,7 @@
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
     </row>
-    <row r="77" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" ht="35.6" spans="1:40">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9717,7 +10277,7 @@
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
     </row>
-    <row r="78" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" ht="35.6" spans="1:40">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9759,7 +10319,7 @@
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
     </row>
-    <row r="79" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" ht="35.6" spans="1:40">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9801,7 +10361,7 @@
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
     </row>
-    <row r="80" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" ht="35.6" spans="1:40">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9843,7 +10403,7 @@
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
     </row>
-    <row r="81" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" ht="35.6" spans="1:40">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9885,7 +10445,7 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
     </row>
-    <row r="82" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" ht="35.6" spans="1:40">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9927,7 +10487,7 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
     </row>
-    <row r="83" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" ht="35.6" spans="1:40">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9969,7 +10529,7 @@
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
     </row>
-    <row r="84" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" ht="35.6" spans="1:40">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -10011,7 +10571,7 @@
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
     </row>
-    <row r="85" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" ht="35.6" spans="1:40">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -10053,7 +10613,7 @@
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
     </row>
-    <row r="86" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" ht="35.6" spans="1:40">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -10095,7 +10655,7 @@
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
     </row>
-    <row r="87" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" ht="35.6" spans="1:40">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -10137,7 +10697,7 @@
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
     </row>
-    <row r="88" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" ht="35.6" spans="1:40">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -10179,7 +10739,7 @@
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
     </row>
-    <row r="89" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" ht="35.6" spans="1:40">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10221,7 +10781,7 @@
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
     </row>
-    <row r="90" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" ht="35.6" spans="1:40">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -10263,7 +10823,7 @@
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
     </row>
-    <row r="91" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" ht="35.6" spans="1:40">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -10305,7 +10865,7 @@
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
     </row>
-    <row r="92" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" ht="35.6" spans="1:40">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10347,7 +10907,7 @@
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
     </row>
-    <row r="93" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" ht="35.6" spans="1:40">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -10389,7 +10949,7 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
     </row>
-    <row r="94" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" ht="35.6" spans="1:40">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -10431,7 +10991,7 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
     </row>
-    <row r="95" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" ht="35.6" spans="1:40">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -10473,7 +11033,7 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
     </row>
-    <row r="96" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" ht="35.6" spans="1:40">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -10515,7 +11075,7 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
     </row>
-    <row r="97" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" ht="35.6" spans="1:40">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -10557,7 +11117,7 @@
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
     </row>
-    <row r="98" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" ht="35.6" spans="1:40">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -10599,7 +11159,7 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
     </row>
-    <row r="99" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" ht="35.6" spans="1:40">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -10641,7 +11201,7 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
     </row>
-    <row r="100" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" ht="35.6" spans="1:40">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -10683,7 +11243,7 @@
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
     </row>
-    <row r="101" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" ht="35.6" spans="1:40">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -10725,7 +11285,7 @@
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
     </row>
-    <row r="102" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" ht="35.6" spans="1:40">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -10767,7 +11327,7 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
     </row>
-    <row r="103" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" ht="35.6" spans="1:40">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -10809,7 +11369,7 @@
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
     </row>
-    <row r="104" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" ht="35.6" spans="1:40">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -10851,7 +11411,7 @@
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
     </row>
-    <row r="105" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" ht="35.6" spans="1:40">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -10893,7 +11453,7 @@
       <c r="AM105" s="1"/>
       <c r="AN105" s="1"/>
     </row>
-    <row r="106" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" ht="35.6" spans="1:40">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -10935,7 +11495,7 @@
       <c r="AM106" s="1"/>
       <c r="AN106" s="1"/>
     </row>
-    <row r="107" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" ht="35.6" spans="1:40">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -10977,7 +11537,7 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
     </row>
-    <row r="108" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" ht="35.6" spans="1:40">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -11019,7 +11579,7 @@
       <c r="AM108" s="1"/>
       <c r="AN108" s="1"/>
     </row>
-    <row r="109" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" ht="35.6" spans="1:40">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -11061,7 +11621,7 @@
       <c r="AM109" s="1"/>
       <c r="AN109" s="1"/>
     </row>
-    <row r="110" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" ht="35.6" spans="1:40">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -11103,7 +11663,7 @@
       <c r="AM110" s="1"/>
       <c r="AN110" s="1"/>
     </row>
-    <row r="111" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" ht="35.6" spans="1:40">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -11145,7 +11705,7 @@
       <c r="AM111" s="1"/>
       <c r="AN111" s="1"/>
     </row>
-    <row r="112" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" ht="35.6" spans="1:39">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -11183,7 +11743,7 @@
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
     </row>
-    <row r="113" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" ht="35.6" spans="1:39">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -11221,7 +11781,7 @@
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
     </row>
-    <row r="114" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" ht="35.6" spans="1:39">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -11259,7 +11819,7 @@
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
     </row>
-    <row r="115" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" ht="35.6" spans="1:39">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -11297,7 +11857,7 @@
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
     </row>
-    <row r="116" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" ht="35.6" spans="1:39">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -11335,7 +11895,7 @@
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
     </row>
-    <row r="117" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" ht="35.6" spans="1:39">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -11373,7 +11933,7 @@
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
     </row>
-    <row r="118" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" ht="35.6" spans="1:39">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -11411,7 +11971,7 @@
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
     </row>
-    <row r="119" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" ht="35.6" spans="1:39">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -11449,7 +12009,7 @@
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
     </row>
-    <row r="120" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" ht="35.6" spans="1:39">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -11487,7 +12047,7 @@
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
     </row>
-    <row r="121" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" ht="35.6" spans="1:39">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -11525,7 +12085,7 @@
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
     </row>
-    <row r="122" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" ht="35.6" spans="1:39">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -11563,7 +12123,7 @@
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
     </row>
-    <row r="123" spans="1:39" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" ht="35.6" spans="1:39">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -11602,7 +12162,8 @@
       <c r="AM123" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jets/expdata/10002.xlsx
+++ b/jets/expdata/10002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowHeight="16980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>idx</t>
   </si>
@@ -61,7 +61,64 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>sys_u</t>
+    <t>%-jet-energy_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-a-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-a-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-a-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-a-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-a-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-b-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-b-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-b-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-b-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-b-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-c-0.0-0.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-c-0.1-0.7_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-c-0.7-1.1_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-c-1.1-1.6_c</t>
+  </si>
+  <si>
+    <t>%-beta-ratio-c-1.6-2.1_c</t>
+  </si>
+  <si>
+    <t>%-resolution_c</t>
+  </si>
+  <si>
+    <t>%-unfold_c</t>
+  </si>
+  <si>
+    <t>%-pt-spectra_c</t>
+  </si>
+  <si>
+    <t>%-delta-pt_c</t>
   </si>
   <si>
     <t>%-norm_c</t>
@@ -82,7 +139,7 @@
     <t>&lt;d2_sigma_over_d_y_d_pt&gt;</t>
   </si>
   <si>
-    <t>pb</t>
+    <t>nb</t>
   </si>
 </sst>
 </file>
@@ -90,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,10 +175,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,6 +187,29 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,60 +230,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,19 +259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +271,14 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,7 +290,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,19 +326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +374,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,19 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,67 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,50 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,8 +532,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +568,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -554,147 +593,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,11 +761,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,35 +1093,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AL77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="8.5625" customWidth="1"/>
-    <col min="3" max="3" width="25.1875" customWidth="1"/>
     <col min="4" max="4" width="13.3125" customWidth="1"/>
     <col min="5" max="5" width="15.6875" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="34.0625" customWidth="1"/>
     <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="28.4375" customWidth="1"/>
-    <col min="11" max="11" width="26.4375" customWidth="1"/>
-    <col min="12" max="12" width="65.6875" customWidth="1"/>
-    <col min="13" max="13" width="12.1875" customWidth="1"/>
-    <col min="14" max="14" width="28.125" customWidth="1"/>
-    <col min="15" max="16" width="22.125" customWidth="1"/>
-    <col min="17" max="17" width="23.8125" customWidth="1"/>
-    <col min="18" max="18" width="38.8125" customWidth="1"/>
-    <col min="19" max="19" width="25.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.6" spans="1:19">
+    <row r="1" ht="35.6" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,16 +1167,73 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" ht="35.6" spans="1:19">
+    <row r="2" ht="35.6" spans="1:38">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>1960</v>
@@ -1153,39 +1261,96 @@
         <v>0.7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1">
-        <v>14500</v>
+        <v>14.5</v>
       </c>
       <c r="O2" s="1">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="P2" s="1">
-        <v>2000</v>
+        <v>10.3</v>
       </c>
       <c r="Q2" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>5.8</v>
       </c>
-      <c r="R2" s="1">
+      <c r="AK2" s="1">
         <v>1.177</v>
       </c>
-      <c r="S2" s="1">
+      <c r="AL2" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" ht="35.6" spans="1:19">
+    <row r="3" ht="35.6" spans="1:38">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>1960</v>
@@ -1213,39 +1378,96 @@
         <v>0.7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1">
-        <v>6680</v>
+        <v>6.68</v>
       </c>
       <c r="O3" s="1">
-        <v>80</v>
+        <v>0.08</v>
       </c>
       <c r="P3" s="1">
-        <v>850</v>
+        <v>9.9</v>
       </c>
       <c r="Q3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>5.8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="AK3" s="1">
         <v>1.144</v>
       </c>
-      <c r="S3" s="1">
+      <c r="AL3" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" ht="35.6" spans="1:19">
+    <row r="4" ht="35.6" spans="1:38">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>1960</v>
@@ -1273,39 +1495,96 @@
         <v>0.7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1">
-        <v>2870</v>
+        <v>2.87</v>
       </c>
       <c r="O4" s="1">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="1">
-        <v>350</v>
+        <v>9.6</v>
       </c>
       <c r="Q4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>5.8</v>
       </c>
-      <c r="R4" s="1">
+      <c r="AK4" s="1">
         <v>1.119</v>
       </c>
-      <c r="S4" s="1">
+      <c r="AL4" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" ht="35.6" spans="1:19">
+    <row r="5" ht="35.6" spans="1:38">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>1960</v>
@@ -1333,39 +1612,96 @@
         <v>0.7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1">
-        <v>1240</v>
+        <v>1.24</v>
       </c>
       <c r="O5" s="1">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="P5" s="1">
-        <v>140</v>
+        <v>9.5</v>
       </c>
       <c r="Q5" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>5.8</v>
       </c>
-      <c r="R5" s="1">
+      <c r="AK5" s="1">
         <v>1.098</v>
       </c>
-      <c r="S5" s="1">
+      <c r="AL5" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" ht="35.6" spans="1:19">
+    <row r="6" ht="35.6" spans="1:38">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>1960</v>
@@ -1393,39 +1729,96 @@
         <v>0.7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1">
-        <v>531</v>
-      </c>
-      <c r="O6" s="1">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.531</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.011</v>
       </c>
       <c r="P6" s="1">
-        <v>60</v>
+        <v>9.6</v>
       </c>
       <c r="Q6" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>5.8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="AK6" s="1">
         <v>1.083</v>
       </c>
-      <c r="S6" s="1">
+      <c r="AL6" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" ht="35.6" spans="1:19">
+    <row r="7" ht="35.6" spans="1:38">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>1960</v>
@@ -1453,39 +1846,96 @@
         <v>0.7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="1">
-        <v>233</v>
-      </c>
-      <c r="O7" s="1">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.233</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.006</v>
       </c>
       <c r="P7" s="1">
-        <v>27</v>
+        <v>9.8</v>
       </c>
       <c r="Q7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>5.8</v>
       </c>
-      <c r="R7" s="1">
+      <c r="AK7" s="1">
         <v>1.07</v>
       </c>
-      <c r="S7" s="1">
+      <c r="AL7" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" ht="35.6" spans="1:19">
+    <row r="8" ht="35.6" spans="1:38">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>1960</v>
@@ -1513,39 +1963,96 @@
         <v>0.7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="1">
-        <v>93.6</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1.2</v>
+        <v>41</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.0936</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.0012</v>
       </c>
       <c r="P8" s="1">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="Q8" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>5.8</v>
       </c>
-      <c r="R8" s="1">
+      <c r="AK8" s="1">
         <v>1.06</v>
       </c>
-      <c r="S8" s="1">
+      <c r="AL8" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" ht="35.6" spans="1:19">
+    <row r="9" ht="35.6" spans="1:38">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>1960</v>
@@ -1573,39 +2080,96 @@
         <v>0.7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="1">
-        <v>36.3</v>
-      </c>
-      <c r="O9" s="1">
+        <v>41</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.0363</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.0006</v>
+      </c>
+      <c r="P9" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AH9" s="1">
         <v>0.6</v>
       </c>
-      <c r="P9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="AI9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>5.8</v>
       </c>
-      <c r="R9" s="1">
+      <c r="AK9" s="1">
         <v>1.052</v>
       </c>
-      <c r="S9" s="1">
+      <c r="AL9" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" ht="35.6" spans="1:19">
+    <row r="10" ht="35.6" spans="1:38">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>1960</v>
@@ -1633,39 +2197,96 @@
         <v>0.7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.1</v>
+        <v>41</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.0139</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.0001</v>
       </c>
       <c r="P10" s="1">
-        <v>1.9</v>
+        <v>12.4</v>
       </c>
       <c r="Q10" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>5.8</v>
       </c>
-      <c r="R10" s="1">
+      <c r="AK10" s="1">
         <v>1.046</v>
       </c>
-      <c r="S10" s="1">
+      <c r="AL10" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" ht="35.6" spans="1:19">
+    <row r="11" ht="35.6" spans="1:38">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>1960</v>
@@ -1693,39 +2314,96 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="1">
-        <v>5.22</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.06</v>
+        <v>41</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.00522</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6e-5</v>
       </c>
       <c r="P11" s="1">
-        <v>0.77</v>
+        <v>13.9</v>
       </c>
       <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>5.8</v>
       </c>
-      <c r="R11" s="1">
+      <c r="AK11" s="1">
         <v>1.041</v>
       </c>
-      <c r="S11" s="1">
+      <c r="AL11" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" ht="35.6" spans="1:19">
+    <row r="12" ht="35.6" spans="1:38">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>1960</v>
@@ -1753,39 +2431,96 @@
         <v>0.7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.03</v>
+        <v>41</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.00179</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3e-5</v>
       </c>
       <c r="P12" s="1">
-        <v>0.29</v>
+        <v>15.5</v>
       </c>
       <c r="Q12" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>5.8</v>
       </c>
-      <c r="R12" s="1">
+      <c r="AK12" s="1">
         <v>1.037</v>
       </c>
-      <c r="S12" s="1">
+      <c r="AL12" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" ht="35.6" spans="1:19">
+    <row r="13" ht="35.6" spans="1:38">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>1960</v>
@@ -1813,39 +2548,96 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.592</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.011</v>
+        <v>41</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.000592</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.1e-5</v>
       </c>
       <c r="P13" s="1">
-        <v>0.108</v>
+        <v>17.4</v>
       </c>
       <c r="Q13" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>5.8</v>
       </c>
-      <c r="R13" s="1">
+      <c r="AK13" s="1">
         <v>1.034</v>
       </c>
-      <c r="S13" s="1">
+      <c r="AL13" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" ht="35.6" spans="1:19">
+    <row r="14" ht="35.6" spans="1:38">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>1960</v>
@@ -1873,39 +2665,96 @@
         <v>0.7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.178</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.006</v>
+        <v>41</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.000178</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6e-6</v>
       </c>
       <c r="P14" s="1">
-        <v>0.036</v>
+        <v>19.5</v>
       </c>
       <c r="Q14" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ14" s="1">
         <v>5.8</v>
       </c>
-      <c r="R14" s="1">
+      <c r="AK14" s="1">
         <v>1.032</v>
       </c>
-      <c r="S14" s="1">
+      <c r="AL14" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" ht="35.6" spans="1:19">
+    <row r="15" ht="35.6" spans="1:38">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1">
         <v>1960</v>
@@ -1933,39 +2782,96 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.0468</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.0028</v>
+        <v>41</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4.68e-5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2.8e-6</v>
       </c>
       <c r="P15" s="1">
-        <v>0.0108</v>
+        <v>22.1</v>
       </c>
       <c r="Q15" s="1">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ15" s="1">
         <v>5.8</v>
       </c>
-      <c r="R15" s="1">
+      <c r="AK15" s="1">
         <v>1.03</v>
       </c>
-      <c r="S15" s="1">
+      <c r="AL15" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" ht="35.6" spans="1:19">
+    <row r="16" ht="35.6" spans="1:38">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>1960</v>
@@ -1993,39 +2899,96 @@
         <v>0.7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.0129</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.0012</v>
+        <v>41</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.29e-5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.2e-6</v>
       </c>
       <c r="P16" s="1">
-        <v>0.0034</v>
+        <v>25.7</v>
       </c>
       <c r="Q16" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ16" s="1">
         <v>5.8</v>
       </c>
-      <c r="R16" s="1">
+      <c r="AK16" s="1">
         <v>1.028</v>
       </c>
-      <c r="S16" s="1">
+      <c r="AL16" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" ht="35.6" spans="1:19">
+    <row r="17" ht="35.6" spans="1:38">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>1960</v>
@@ -2053,39 +3016,96 @@
         <v>0.7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.00247</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0.0005</v>
+        <v>41</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.47e-6</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5e-7</v>
       </c>
       <c r="P17" s="1">
-        <v>0.0008</v>
+        <v>31.3</v>
       </c>
       <c r="Q17" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ17" s="1">
         <v>5.8</v>
       </c>
-      <c r="R17" s="1">
+      <c r="AK17" s="1">
         <v>1.027</v>
       </c>
-      <c r="S17" s="1">
+      <c r="AL17" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" ht="35.6" spans="1:19">
+    <row r="18" ht="35.6" spans="1:38">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>1960</v>
@@ -2113,39 +3133,96 @@
         <v>0.7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.000213</v>
-      </c>
-      <c r="O18" s="1">
-        <v>9.5e-5</v>
+        <v>41</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.13e-7</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9.5e-8</v>
       </c>
       <c r="P18" s="1">
-        <v>9.7e-5</v>
+        <v>43.7</v>
       </c>
       <c r="Q18" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ18" s="1">
         <v>5.8</v>
       </c>
-      <c r="R18" s="1">
+      <c r="AK18" s="1">
         <v>1.026</v>
       </c>
-      <c r="S18" s="1">
+      <c r="AL18" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" ht="35.6" spans="1:19">
+    <row r="19" ht="35.6" spans="1:38">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1">
         <v>1960</v>
@@ -2173,39 +3250,96 @@
         <v>0.7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1">
-        <v>14000</v>
+        <v>14</v>
       </c>
       <c r="O19" s="1">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="P19" s="1">
-        <v>1600</v>
+        <v>9.5</v>
       </c>
       <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AJ19" s="1">
         <v>5.8</v>
       </c>
-      <c r="R19" s="1">
+      <c r="AK19" s="1">
         <v>1.188</v>
       </c>
-      <c r="S19" s="1">
+      <c r="AL19" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" ht="35.6" spans="1:19">
+    <row r="20" ht="35.6" spans="1:38">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1">
         <v>1960</v>
@@ -2233,39 +3367,96 @@
         <v>0.7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N20" s="1">
-        <v>6140</v>
+        <v>6.14</v>
       </c>
       <c r="O20" s="1">
-        <v>120</v>
+        <v>0.12</v>
       </c>
       <c r="P20" s="1">
-        <v>660</v>
+        <v>9.4</v>
       </c>
       <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AJ20" s="1">
         <v>5.8</v>
       </c>
-      <c r="R20" s="1">
+      <c r="AK20" s="1">
         <v>1.156</v>
       </c>
-      <c r="S20" s="1">
+      <c r="AL20" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="35.6" spans="1:19">
+    <row r="21" ht="35.6" spans="1:38">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1">
         <v>1960</v>
@@ -2293,39 +3484,96 @@
         <v>0.7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N21" s="1">
-        <v>2690</v>
+        <v>2.69</v>
       </c>
       <c r="O21" s="1">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="P21" s="1">
-        <v>290</v>
+        <v>9.4</v>
       </c>
       <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>5.8</v>
       </c>
-      <c r="R21" s="1">
+      <c r="AK21" s="1">
         <v>1.129</v>
       </c>
-      <c r="S21" s="1">
+      <c r="AL21" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" ht="35.6" spans="1:19">
+    <row r="22" ht="35.6" spans="1:38">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>1960</v>
@@ -2353,39 +3601,96 @@
         <v>0.7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N22" s="1">
-        <v>1140</v>
+        <v>1.14</v>
       </c>
       <c r="O22" s="1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P22" s="1">
-        <v>120</v>
+        <v>9.4</v>
       </c>
       <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>5.8</v>
       </c>
-      <c r="R22" s="1">
+      <c r="AK22" s="1">
         <v>1.108</v>
       </c>
-      <c r="S22" s="1">
+      <c r="AL22" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" ht="35.6" spans="1:19">
+    <row r="23" ht="35.6" spans="1:38">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1">
         <v>1960</v>
@@ -2413,39 +3718,96 @@
         <v>0.7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="1">
-        <v>490</v>
+        <v>41</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.49</v>
       </c>
       <c r="O23" s="1">
-        <v>4</v>
+        <v>0.004</v>
       </c>
       <c r="P23" s="1">
-        <v>51</v>
+        <v>9.6</v>
       </c>
       <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AJ23" s="1">
         <v>5.8</v>
       </c>
-      <c r="R23" s="1">
+      <c r="AK23" s="1">
         <v>1.09</v>
       </c>
-      <c r="S23" s="1">
+      <c r="AL23" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" ht="35.6" spans="1:19">
+    <row r="24" ht="35.6" spans="1:38">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1">
         <v>1960</v>
@@ -2473,39 +3835,96 @@
         <v>0.7</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="1">
-        <v>208</v>
+        <v>41</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.208</v>
       </c>
       <c r="O24" s="1">
-        <v>2</v>
+        <v>0.002</v>
       </c>
       <c r="P24" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>5.8</v>
       </c>
-      <c r="R24" s="1">
+      <c r="AK24" s="1">
         <v>1.076</v>
       </c>
-      <c r="S24" s="1">
+      <c r="AL24" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" ht="35.6" spans="1:19">
+    <row r="25" ht="35.6" spans="1:38">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1">
         <v>1960</v>
@@ -2533,39 +3952,96 @@
         <v>0.7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="1">
-        <v>85.1</v>
+        <v>41</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.0851</v>
       </c>
       <c r="O25" s="1">
-        <v>0.4</v>
+        <v>0.0004</v>
       </c>
       <c r="P25" s="1">
-        <v>9.5</v>
+        <v>10.6</v>
       </c>
       <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ25" s="1">
         <v>5.8</v>
       </c>
-      <c r="R25" s="1">
+      <c r="AK25" s="1">
         <v>1.065</v>
       </c>
-      <c r="S25" s="1">
+      <c r="AL25" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" ht="35.6" spans="1:19">
+    <row r="26" ht="35.6" spans="1:38">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1">
         <v>1960</v>
@@ -2593,39 +4069,96 @@
         <v>0.7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="1">
-        <v>33.3</v>
+        <v>41</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.0333</v>
       </c>
       <c r="O26" s="1">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="P26" s="1">
-        <v>4</v>
+        <v>11.4</v>
       </c>
       <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ26" s="1">
         <v>5.8</v>
       </c>
-      <c r="R26" s="1">
+      <c r="AK26" s="1">
         <v>1.055</v>
       </c>
-      <c r="S26" s="1">
+      <c r="AL26" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" ht="35.6" spans="1:19">
+    <row r="27" ht="35.6" spans="1:38">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1">
         <v>1960</v>
@@ -2653,39 +4186,96 @@
         <v>0.7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="1">
-        <v>12.3</v>
+        <v>41</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.0123</v>
       </c>
       <c r="O27" s="1">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
       <c r="P27" s="1">
-        <v>1.6</v>
+        <v>12.6</v>
       </c>
       <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ27" s="1">
         <v>5.8</v>
       </c>
-      <c r="R27" s="1">
+      <c r="AK27" s="1">
         <v>1.047</v>
       </c>
-      <c r="S27" s="1">
+      <c r="AL27" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" ht="35.6" spans="1:19">
+    <row r="28" ht="35.6" spans="1:38">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1">
         <v>1960</v>
@@ -2713,39 +4303,96 @@
         <v>0.7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4.53</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.02</v>
+        <v>41</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.00453</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2e-5</v>
       </c>
       <c r="P28" s="1">
-        <v>0.65</v>
+        <v>14.1</v>
       </c>
       <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ28" s="1">
         <v>5.8</v>
       </c>
-      <c r="R28" s="1">
+      <c r="AK28" s="1">
         <v>1.041</v>
       </c>
-      <c r="S28" s="1">
+      <c r="AL28" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="35.6" spans="1:19">
+    <row r="29" ht="35.6" spans="1:38">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>1960</v>
@@ -2773,39 +4420,96 @@
         <v>0.7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.01</v>
+        <v>41</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.00157</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1e-5</v>
       </c>
       <c r="P29" s="1">
-        <v>0.26</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ29" s="1">
         <v>5.8</v>
       </c>
-      <c r="R29" s="1">
+      <c r="AK29" s="1">
         <v>1.036</v>
       </c>
-      <c r="S29" s="1">
+      <c r="AL29" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" ht="35.6" spans="1:19">
+    <row r="30" ht="35.6" spans="1:38">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1">
         <v>1960</v>
@@ -2833,39 +4537,96 @@
         <v>0.7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.487</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.006</v>
+        <v>41</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.000487</v>
+      </c>
+      <c r="O30" s="2">
+        <v>6e-6</v>
       </c>
       <c r="P30" s="1">
-        <v>0.091</v>
+        <v>18.4</v>
       </c>
       <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ30" s="1">
         <v>5.8</v>
       </c>
-      <c r="R30" s="1">
+      <c r="AK30" s="1">
         <v>1.031</v>
       </c>
-      <c r="S30" s="1">
+      <c r="AL30" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" ht="35.6" spans="1:19">
+    <row r="31" ht="35.6" spans="1:38">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
         <v>1960</v>
@@ -2893,39 +4654,96 @@
         <v>0.7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.143</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.002</v>
+        <v>41</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.000143</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2e-6</v>
       </c>
       <c r="P31" s="1">
-        <v>0.031</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ31" s="1">
         <v>5.8</v>
       </c>
-      <c r="R31" s="1">
+      <c r="AK31" s="1">
         <v>1.028</v>
       </c>
-      <c r="S31" s="1">
+      <c r="AL31" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" ht="35.6" spans="1:19">
+    <row r="32" ht="35.6" spans="1:38">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1">
         <v>1960</v>
@@ -2953,39 +4771,96 @@
         <v>0.7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.0369</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.001</v>
+        <v>41</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3.69e-5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1e-6</v>
       </c>
       <c r="P32" s="1">
-        <v>0.0094</v>
+        <v>25.1</v>
       </c>
       <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ32" s="1">
         <v>5.8</v>
       </c>
-      <c r="R32" s="1">
+      <c r="AK32" s="1">
         <v>1.025</v>
       </c>
-      <c r="S32" s="1">
+      <c r="AL32" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" ht="35.6" spans="1:19">
+    <row r="33" ht="35.6" spans="1:38">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1">
         <v>1960</v>
@@ -3013,39 +4888,96 @@
         <v>0.7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.00718</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.00034</v>
+        <v>41</v>
+      </c>
+      <c r="N33" s="2">
+        <v>7.18e-6</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3.4e-7</v>
       </c>
       <c r="P33" s="1">
-        <v>0.0022</v>
+        <v>30.3</v>
       </c>
       <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ33" s="1">
         <v>5.8</v>
       </c>
-      <c r="R33" s="1">
+      <c r="AK33" s="1">
         <v>1.023</v>
       </c>
-      <c r="S33" s="1">
+      <c r="AL33" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" ht="35.6" spans="1:19">
+    <row r="34" ht="35.6" spans="1:38">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
         <v>1960</v>
@@ -3073,39 +5005,96 @@
         <v>0.7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.00116</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0.00013</v>
+        <v>41</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.16e-6</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1.3e-7</v>
       </c>
       <c r="P34" s="1">
-        <v>0.00044</v>
+        <v>37.7</v>
       </c>
       <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="1">
         <v>5.8</v>
       </c>
-      <c r="R34" s="1">
+      <c r="AK34" s="1">
         <v>1.021</v>
       </c>
-      <c r="S34" s="1">
+      <c r="AL34" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="35.6" spans="1:19">
+    <row r="35" ht="35.6" spans="1:38">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
         <v>1960</v>
@@ -3133,39 +5122,96 @@
         <v>0.7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="1">
-        <v>8.97e-5</v>
-      </c>
-      <c r="O35" s="1">
-        <v>2.4e-5</v>
+        <v>41</v>
+      </c>
+      <c r="N35" s="2">
+        <v>8.97e-8</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2.4e-8</v>
       </c>
       <c r="P35" s="1">
-        <v>4.75e-5</v>
+        <v>52.3</v>
       </c>
       <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="1">
         <v>5.8</v>
       </c>
-      <c r="R35" s="1">
+      <c r="AK35" s="1">
         <v>1.018</v>
       </c>
-      <c r="S35" s="1">
+      <c r="AL35" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" ht="35.6" spans="1:19">
+    <row r="36" ht="35.6" spans="1:38">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
         <v>1960</v>
@@ -3193,39 +5239,96 @@
         <v>0.7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N36" s="1">
-        <v>12300</v>
+        <v>12.3</v>
       </c>
       <c r="O36" s="1">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="P36" s="1">
-        <v>1500</v>
+        <v>9.9</v>
       </c>
       <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AJ36" s="1">
         <v>5.8</v>
       </c>
-      <c r="R36" s="1">
+      <c r="AK36" s="1">
         <v>1.169</v>
       </c>
-      <c r="S36" s="1">
+      <c r="AL36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="35.6" spans="1:19">
+    <row r="37" ht="35.6" spans="1:38">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1">
         <v>1960</v>
@@ -3253,39 +5356,96 @@
         <v>0.7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N37" s="1">
-        <v>5480</v>
+        <v>5.48</v>
       </c>
       <c r="O37" s="1">
-        <v>140</v>
+        <v>0.14</v>
       </c>
       <c r="P37" s="1">
-        <v>650</v>
+        <v>9.3</v>
       </c>
       <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AJ37" s="1">
         <v>5.8</v>
       </c>
-      <c r="R37" s="1">
+      <c r="AK37" s="1">
         <v>1.143</v>
       </c>
-      <c r="S37" s="1">
+      <c r="AL37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="35.6" spans="1:19">
+    <row r="38" ht="35.6" spans="1:38">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
         <v>1960</v>
@@ -3313,39 +5473,96 @@
         <v>0.7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N38" s="1">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
       <c r="O38" s="1">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="P38" s="1">
-        <v>280</v>
+        <v>9.2</v>
       </c>
       <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AJ38" s="1">
         <v>5.8</v>
       </c>
-      <c r="R38" s="1">
+      <c r="AK38" s="1">
         <v>1.12</v>
       </c>
-      <c r="S38" s="1">
+      <c r="AL38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="35.6" spans="1:19">
+    <row r="39" ht="35.6" spans="1:38">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>1960</v>
@@ -3373,39 +5590,96 @@
         <v>0.7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N39" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="O39" s="1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P39" s="1">
-        <v>150</v>
+        <v>9.5</v>
       </c>
       <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AJ39" s="1">
         <v>5.8</v>
       </c>
-      <c r="R39" s="1">
+      <c r="AK39" s="1">
         <v>1.102</v>
       </c>
-      <c r="S39" s="1">
+      <c r="AL39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="35.6" spans="1:19">
+    <row r="40" ht="35.6" spans="1:38">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>1960</v>
@@ -3433,39 +5707,96 @@
         <v>0.7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="1">
-        <v>415</v>
+        <v>41</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.415</v>
       </c>
       <c r="O40" s="1">
-        <v>5</v>
+        <v>0.005</v>
       </c>
       <c r="P40" s="1">
-        <v>48</v>
+        <v>9.9</v>
       </c>
       <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AJ40" s="1">
         <v>5.8</v>
       </c>
-      <c r="R40" s="1">
+      <c r="AK40" s="1">
         <v>1.087</v>
       </c>
-      <c r="S40" s="1">
+      <c r="AL40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="35.6" spans="1:19">
+    <row r="41" ht="35.6" spans="1:38">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
         <v>1960</v>
@@ -3493,39 +5824,96 @@
         <v>0.7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="1">
-        <v>173</v>
+        <v>41</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.173</v>
       </c>
       <c r="O41" s="1">
-        <v>3</v>
+        <v>0.003</v>
       </c>
       <c r="P41" s="1">
-        <v>21</v>
+        <v>10.6</v>
       </c>
       <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1">
         <v>5.8</v>
       </c>
-      <c r="R41" s="1">
+      <c r="AK41" s="1">
         <v>1.075</v>
       </c>
-      <c r="S41" s="1">
+      <c r="AL41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="35.6" spans="1:19">
+    <row r="42" ht="35.6" spans="1:38">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
         <v>1960</v>
@@ -3553,39 +5941,96 @@
         <v>0.7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="1">
-        <v>68.3</v>
+        <v>41</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.0683</v>
       </c>
       <c r="O42" s="1">
-        <v>0.5</v>
+        <v>0.0005</v>
       </c>
       <c r="P42" s="1">
-        <v>8.7</v>
+        <v>11.5</v>
       </c>
       <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ42" s="1">
         <v>5.8</v>
       </c>
-      <c r="R42" s="1">
+      <c r="AK42" s="1">
         <v>1.064</v>
       </c>
-      <c r="S42" s="1">
+      <c r="AL42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="35.6" spans="1:19">
+    <row r="43" ht="35.6" spans="1:38">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>1960</v>
@@ -3613,39 +6058,96 @@
         <v>0.7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="1">
-        <v>25.2</v>
+        <v>41</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.0252</v>
       </c>
       <c r="O43" s="1">
-        <v>0.3</v>
+        <v>0.0003</v>
       </c>
       <c r="P43" s="1">
-        <v>3.5</v>
+        <v>12.6</v>
       </c>
       <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ43" s="1">
         <v>5.8</v>
       </c>
-      <c r="R43" s="1">
+      <c r="AK43" s="1">
         <v>1.056</v>
       </c>
-      <c r="S43" s="1">
+      <c r="AL43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="35.6" spans="1:19">
+    <row r="44" ht="35.6" spans="1:38">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1">
         <v>1960</v>
@@ -3673,39 +6175,96 @@
         <v>0.7</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N44" s="1">
-        <v>8.95</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.06</v>
+        <v>41</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.00895</v>
+      </c>
+      <c r="O44" s="2">
+        <v>6e-5</v>
       </c>
       <c r="P44" s="1">
-        <v>1.36</v>
+        <v>14.1</v>
       </c>
       <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>3</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ44" s="1">
         <v>5.8</v>
       </c>
-      <c r="R44" s="1">
+      <c r="AK44" s="1">
         <v>1.048</v>
       </c>
-      <c r="S44" s="1">
+      <c r="AL44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="35.6" spans="1:19">
+    <row r="45" ht="35.6" spans="1:38">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>1960</v>
@@ -3733,39 +6292,96 @@
         <v>0.7</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="1">
-        <v>3.04</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0.02</v>
+        <v>41</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.00304</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2e-5</v>
       </c>
       <c r="P45" s="1">
-        <v>0.51</v>
+        <v>15.9</v>
       </c>
       <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ45" s="1">
         <v>5.8</v>
       </c>
-      <c r="R45" s="1">
+      <c r="AK45" s="1">
         <v>1.042</v>
       </c>
-      <c r="S45" s="1">
+      <c r="AL45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="35.6" spans="1:19">
+    <row r="46" ht="35.6" spans="1:38">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D46" s="1">
         <v>1960</v>
@@ -3793,39 +6409,96 @@
         <v>0.7</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0.952</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0.011</v>
+        <v>41</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.000952</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.1e-5</v>
       </c>
       <c r="P46" s="1">
-        <v>0.182</v>
+        <v>18.1</v>
       </c>
       <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AJ46" s="1">
         <v>5.8</v>
       </c>
-      <c r="R46" s="1">
+      <c r="AK46" s="1">
         <v>1.037</v>
       </c>
-      <c r="S46" s="1">
+      <c r="AL46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="35.6" spans="1:19">
+    <row r="47" ht="35.6" spans="1:38">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1">
         <v>1960</v>
@@ -3853,39 +6526,96 @@
         <v>0.7</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.000253</v>
+      </c>
+      <c r="O47" s="2">
+        <v>5e-6</v>
+      </c>
+      <c r="P47" s="1">
         <v>21</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0.056</v>
-      </c>
       <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ47" s="1">
         <v>5.8</v>
       </c>
-      <c r="R47" s="1">
+      <c r="AK47" s="1">
         <v>1.033</v>
       </c>
-      <c r="S47" s="1">
+      <c r="AL47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="35.6" spans="1:19">
+    <row r="48" ht="35.6" spans="1:38">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1">
         <v>1960</v>
@@ -3913,39 +6643,96 @@
         <v>0.7</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0.0618</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.0017</v>
+        <v>41</v>
+      </c>
+      <c r="N48" s="2">
+        <v>6.18e-5</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1.7e-6</v>
       </c>
       <c r="P48" s="1">
-        <v>0.0164</v>
+        <v>25.2</v>
       </c>
       <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>5</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ48" s="1">
         <v>5.8</v>
       </c>
-      <c r="R48" s="1">
+      <c r="AK48" s="1">
         <v>1.03</v>
       </c>
-      <c r="S48" s="1">
+      <c r="AL48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="35.6" spans="1:19">
+    <row r="49" ht="35.6" spans="1:38">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1">
         <v>1960</v>
@@ -3973,39 +6760,96 @@
         <v>0.7</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0.0111</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0.0007</v>
+        <v>41</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1.11e-5</v>
+      </c>
+      <c r="O49" s="2">
+        <v>7e-7</v>
       </c>
       <c r="P49" s="1">
-        <v>0.0036</v>
+        <v>31.5</v>
       </c>
       <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ49" s="1">
         <v>5.8</v>
       </c>
-      <c r="R49" s="1">
+      <c r="AK49" s="1">
         <v>1.027</v>
       </c>
-      <c r="S49" s="1">
+      <c r="AL49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="35.6" spans="1:19">
+    <row r="50" ht="35.6" spans="1:38">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1">
         <v>1960</v>
@@ -4033,39 +6877,96 @@
         <v>0.7</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0.00153</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.0002</v>
+        <v>41</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1.53e-6</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2e-7</v>
       </c>
       <c r="P50" s="1">
-        <v>0.00065</v>
+        <v>41.3</v>
       </c>
       <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ50" s="1">
         <v>5.8</v>
       </c>
-      <c r="R50" s="1">
+      <c r="AK50" s="1">
         <v>1.025</v>
       </c>
-      <c r="S50" s="1">
+      <c r="AL50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="35.6" spans="1:19">
+    <row r="51" ht="35.6" spans="1:38">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D51" s="1">
         <v>1960</v>
@@ -4093,39 +6994,96 @@
         <v>0.7</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.000217</v>
-      </c>
-      <c r="O51" s="1">
-        <v>7.2e-5</v>
+        <v>41</v>
+      </c>
+      <c r="N51" s="2">
+        <v>2.17e-7</v>
+      </c>
+      <c r="O51" s="2">
+        <v>7.2e-8</v>
       </c>
       <c r="P51" s="1">
-        <v>0.000125</v>
+        <v>55.4</v>
       </c>
       <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ51" s="1">
         <v>5.8</v>
       </c>
-      <c r="R51" s="1">
+      <c r="AK51" s="1">
         <v>1.023</v>
       </c>
-      <c r="S51" s="1">
+      <c r="AL51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="35.6" spans="1:19">
+    <row r="52" ht="35.6" spans="1:38">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1">
         <v>1960</v>
@@ -4153,39 +7111,96 @@
         <v>0.7</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N52" s="1">
-        <v>11000</v>
+        <v>11</v>
       </c>
       <c r="O52" s="1">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="P52" s="1">
-        <v>1400</v>
+        <v>9.4</v>
       </c>
       <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52" s="1">
         <v>5.8</v>
       </c>
-      <c r="R52" s="1">
+      <c r="AK52" s="1">
         <v>1.16</v>
       </c>
-      <c r="S52" s="1">
+      <c r="AL52" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="53" ht="35.6" spans="1:19">
+    <row r="53" ht="35.6" spans="1:38">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D53" s="1">
         <v>1960</v>
@@ -4213,39 +7228,96 @@
         <v>0.7</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N53" s="1">
-        <v>4400</v>
+        <v>4.4</v>
       </c>
       <c r="O53" s="1">
-        <v>150</v>
+        <v>0.15</v>
       </c>
       <c r="P53" s="1">
-        <v>540</v>
+        <v>9.5</v>
       </c>
       <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AJ53" s="1">
         <v>5.8</v>
       </c>
-      <c r="R53" s="1">
+      <c r="AK53" s="1">
         <v>1.133</v>
       </c>
-      <c r="S53" s="1">
+      <c r="AL53" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="54" ht="35.6" spans="1:19">
+    <row r="54" ht="35.6" spans="1:38">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D54" s="1">
         <v>1960</v>
@@ -4273,39 +7345,96 @@
         <v>0.7</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N54" s="1">
-        <v>1820</v>
+        <v>1.82</v>
       </c>
       <c r="O54" s="1">
-        <v>60</v>
+        <v>0.06</v>
       </c>
       <c r="P54" s="1">
-        <v>220</v>
+        <v>9.8</v>
       </c>
       <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ54" s="1">
         <v>5.8</v>
       </c>
-      <c r="R54" s="1">
+      <c r="AK54" s="1">
         <v>1.111</v>
       </c>
-      <c r="S54" s="1">
+      <c r="AL54" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="55" ht="35.6" spans="1:19">
+    <row r="55" ht="35.6" spans="1:38">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D55" s="1">
         <v>1960</v>
@@ -4333,39 +7462,96 @@
         <v>0.7</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N55" s="1">
-        <v>722</v>
+        <v>41</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.722</v>
       </c>
       <c r="O55" s="1">
-        <v>37</v>
+        <v>0.037</v>
       </c>
       <c r="P55" s="1">
-        <v>90</v>
+        <v>10.2</v>
       </c>
       <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG55" s="1">
         <v>5.8</v>
       </c>
-      <c r="R55" s="1">
+      <c r="AH55" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AK55" s="1">
         <v>1.094</v>
       </c>
-      <c r="S55" s="1">
+      <c r="AL55" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="56" ht="35.6" spans="1:19">
+    <row r="56" ht="35.6" spans="1:38">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1">
         <v>1960</v>
@@ -4393,39 +7579,96 @@
         <v>0.7</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N56" s="1">
-        <v>298</v>
+        <v>41</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.298</v>
       </c>
       <c r="O56" s="1">
-        <v>5</v>
+        <v>0.005</v>
       </c>
       <c r="P56" s="1">
-        <v>38</v>
+        <v>10.9</v>
       </c>
       <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AJ56" s="1">
         <v>5.8</v>
       </c>
-      <c r="R56" s="1">
+      <c r="AK56" s="1">
         <v>1.08</v>
       </c>
-      <c r="S56" s="1">
+      <c r="AL56" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="57" ht="35.6" spans="1:19">
+    <row r="57" ht="35.6" spans="1:38">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1">
         <v>1960</v>
@@ -4453,39 +7696,96 @@
         <v>0.7</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="1">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.114</v>
       </c>
       <c r="O57" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="P57" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
         <v>3</v>
       </c>
-      <c r="P57" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q57" s="1">
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AJ57" s="1">
         <v>5.8</v>
       </c>
-      <c r="R57" s="1">
+      <c r="AK57" s="1">
         <v>1.068</v>
       </c>
-      <c r="S57" s="1">
+      <c r="AL57" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="58" ht="35.6" spans="1:19">
+    <row r="58" ht="35.6" spans="1:38">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1">
         <v>1960</v>
@@ -4513,39 +7813,96 @@
         <v>0.7</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N58" s="1">
         <v>41</v>
       </c>
+      <c r="N58" s="2">
+        <v>0.041</v>
+      </c>
       <c r="O58" s="1">
-        <v>0.4</v>
+        <v>0.0004</v>
       </c>
       <c r="P58" s="1">
-        <v>6</v>
+        <v>12.8</v>
       </c>
       <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>3</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AJ58" s="1">
         <v>5.8</v>
       </c>
-      <c r="R58" s="1">
+      <c r="AK58" s="1">
         <v>1.059</v>
       </c>
-      <c r="S58" s="1">
+      <c r="AL58" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="59" ht="35.6" spans="1:19">
+    <row r="59" ht="35.6" spans="1:38">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1">
         <v>1960</v>
@@ -4573,39 +7930,96 @@
         <v>0.7</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" s="1">
-        <v>13.9</v>
+        <v>41</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.0139</v>
       </c>
       <c r="O59" s="1">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="P59" s="1">
-        <v>2.3</v>
+        <v>14.5</v>
       </c>
       <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="1">
         <v>5.8</v>
       </c>
-      <c r="R59" s="1">
+      <c r="AK59" s="1">
         <v>1.051</v>
       </c>
-      <c r="S59" s="1">
+      <c r="AL59" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="60" ht="35.6" spans="1:19">
+    <row r="60" ht="35.6" spans="1:38">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D60" s="1">
         <v>1960</v>
@@ -4633,39 +8047,96 @@
         <v>0.7</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="1">
-        <v>4.19</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0.04</v>
+        <v>41</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.00419</v>
+      </c>
+      <c r="O60" s="2">
+        <v>4e-5</v>
       </c>
       <c r="P60" s="1">
-        <v>0.78</v>
+        <v>16.9</v>
       </c>
       <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="1">
         <v>5.8</v>
       </c>
-      <c r="R60" s="1">
+      <c r="AK60" s="1">
         <v>1.045</v>
       </c>
-      <c r="S60" s="1">
+      <c r="AL60" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="61" ht="35.6" spans="1:19">
+    <row r="61" ht="35.6" spans="1:38">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D61" s="1">
         <v>1960</v>
@@ -4693,39 +8164,96 @@
         <v>0.7</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="1">
-        <v>1.15</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0.02</v>
+        <v>41</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.00115</v>
+      </c>
+      <c r="O61" s="2">
+        <v>2e-5</v>
       </c>
       <c r="P61" s="1">
-        <v>0.25</v>
+        <v>20.3</v>
       </c>
       <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ61" s="1">
         <v>5.8</v>
       </c>
-      <c r="R61" s="1">
+      <c r="AK61" s="1">
         <v>1.04</v>
       </c>
-      <c r="S61" s="1">
+      <c r="AL61" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="62" ht="35.6" spans="1:19">
+    <row r="62" ht="35.6" spans="1:38">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D62" s="1">
         <v>1960</v>
@@ -4753,39 +8281,96 @@
         <v>0.7</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0.273</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0.009</v>
+        <v>41</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.000273</v>
+      </c>
+      <c r="O62" s="2">
+        <v>9e-6</v>
       </c>
       <c r="P62" s="1">
-        <v>0.073</v>
+        <v>24.7</v>
       </c>
       <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ62" s="1">
         <v>5.8</v>
       </c>
-      <c r="R62" s="1">
+      <c r="AK62" s="1">
         <v>1.036</v>
       </c>
-      <c r="S62" s="1">
+      <c r="AL62" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="63" ht="35.6" spans="1:19">
+    <row r="63" ht="35.6" spans="1:38">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D63" s="1">
         <v>1960</v>
@@ -4813,39 +8398,96 @@
         <v>0.7</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0.0518</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0.0023</v>
+        <v>41</v>
+      </c>
+      <c r="N63" s="2">
+        <v>5.18e-5</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2.3e-6</v>
       </c>
       <c r="P63" s="1">
-        <v>0.0168</v>
+        <v>29.9</v>
       </c>
       <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ63" s="1">
         <v>5.8</v>
       </c>
-      <c r="R63" s="1">
+      <c r="AK63" s="1">
         <v>1.033</v>
       </c>
-      <c r="S63" s="1">
+      <c r="AL63" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="64" ht="35.6" spans="1:19">
+    <row r="64" ht="35.6" spans="1:38">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D64" s="1">
         <v>1960</v>
@@ -4873,39 +8515,96 @@
         <v>0.7</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0.00799</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0.00061</v>
+        <v>41</v>
+      </c>
+      <c r="N64" s="2">
+        <v>7.99e-6</v>
+      </c>
+      <c r="O64" s="2">
+        <v>6.1e-7</v>
       </c>
       <c r="P64" s="1">
-        <v>0.00331</v>
+        <v>37.2</v>
       </c>
       <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ64" s="1">
         <v>5.8</v>
       </c>
-      <c r="R64" s="1">
+      <c r="AK64" s="1">
         <v>1.03</v>
       </c>
-      <c r="S64" s="1">
+      <c r="AL64" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="65" ht="35.6" spans="1:19">
+    <row r="65" ht="35.6" spans="1:38">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D65" s="1">
         <v>1960</v>
@@ -4933,39 +8632,96 @@
         <v>0.7</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0.00105</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0.00022</v>
+        <v>41</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1.05e-6</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2.2e-7</v>
       </c>
       <c r="P65" s="1">
-        <v>0.00071</v>
+        <v>61.2</v>
       </c>
       <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>8.7</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AJ65" s="1">
         <v>5.8</v>
       </c>
-      <c r="R65" s="1">
+      <c r="AK65" s="1">
         <v>1.028</v>
       </c>
-      <c r="S65" s="1">
+      <c r="AL65" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="66" ht="35.6" spans="1:19">
+    <row r="66" ht="35.6" spans="1:38">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D66" s="1">
         <v>1960</v>
@@ -4993,39 +8749,96 @@
         <v>0.7</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N66" s="1">
-        <v>6670</v>
+        <v>6.67</v>
       </c>
       <c r="O66" s="1">
-        <v>150</v>
+        <v>0.15</v>
       </c>
       <c r="P66" s="1">
-        <v>840</v>
+        <v>11.6</v>
       </c>
       <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AJ66" s="1">
         <v>5.8</v>
       </c>
-      <c r="R66" s="1">
+      <c r="AK66" s="1">
         <v>1.132</v>
       </c>
-      <c r="S66" s="1">
+      <c r="AL66" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="67" ht="35.6" spans="1:19">
+    <row r="67" ht="35.6" spans="1:38">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D67" s="1">
         <v>1960</v>
@@ -5053,39 +8866,96 @@
         <v>0.7</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N67" s="1">
-        <v>2680</v>
+        <v>2.68</v>
       </c>
       <c r="O67" s="1">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="P67" s="1">
-        <v>320</v>
+        <v>10.9</v>
       </c>
       <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67" s="1">
         <v>5.8</v>
       </c>
-      <c r="R67" s="1">
+      <c r="AK67" s="1">
         <v>1.116</v>
       </c>
-      <c r="S67" s="1">
+      <c r="AL67" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="68" ht="35.6" spans="1:19">
+    <row r="68" ht="35.6" spans="1:38">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D68" s="1">
         <v>1960</v>
@@ -5113,39 +8983,96 @@
         <v>0.7</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N68" s="1">
-        <v>1040</v>
+        <v>41</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1.04</v>
       </c>
       <c r="O68" s="1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P68" s="1">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AJ68" s="1">
         <v>5.8</v>
       </c>
-      <c r="R68" s="1">
+      <c r="AK68" s="1">
         <v>1.1</v>
       </c>
-      <c r="S68" s="1">
+      <c r="AL68" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="69" ht="35.6" spans="1:19">
+    <row r="69" ht="35.6" spans="1:38">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D69" s="1">
         <v>1960</v>
@@ -5173,39 +9100,96 @@
         <v>0.7</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="1">
-        <v>377</v>
+        <v>41</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.377</v>
       </c>
       <c r="O69" s="1">
-        <v>4</v>
+        <v>0.004</v>
       </c>
       <c r="P69" s="1">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AJ69" s="1">
         <v>5.8</v>
       </c>
-      <c r="R69" s="1">
+      <c r="AK69" s="1">
         <v>1.086</v>
       </c>
-      <c r="S69" s="1">
+      <c r="AL69" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="70" ht="35.6" spans="1:19">
+    <row r="70" ht="35.6" spans="1:38">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D70" s="1">
         <v>1960</v>
@@ -5233,39 +9217,96 @@
         <v>0.7</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70" s="1">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.132</v>
       </c>
       <c r="O70" s="1">
-        <v>2</v>
+        <v>0.002</v>
       </c>
       <c r="P70" s="1">
-        <v>19</v>
+        <v>13.7</v>
       </c>
       <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AJ70" s="1">
         <v>5.8</v>
       </c>
-      <c r="R70" s="1">
+      <c r="AK70" s="1">
         <v>1.072</v>
       </c>
-      <c r="S70" s="1">
+      <c r="AL70" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="71" ht="35.6" spans="1:19">
+    <row r="71" ht="35.6" spans="1:38">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1">
         <v>1960</v>
@@ -5293,39 +9334,96 @@
         <v>0.7</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N71" s="1">
-        <v>41.8</v>
+        <v>41</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.0418</v>
       </c>
       <c r="O71" s="1">
-        <v>0.4</v>
+        <v>0.0004</v>
       </c>
       <c r="P71" s="1">
-        <v>7.2</v>
+        <v>16.2</v>
       </c>
       <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ71" s="1">
         <v>5.8</v>
       </c>
-      <c r="R71" s="1">
+      <c r="AK71" s="1">
         <v>1.059</v>
       </c>
-      <c r="S71" s="1">
+      <c r="AL71" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="72" ht="35.6" spans="1:19">
+    <row r="72" ht="35.6" spans="1:38">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1">
         <v>1960</v>
@@ -5353,39 +9451,96 @@
         <v>0.7</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N72" s="1">
-        <v>12.1</v>
+        <v>41</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.0121</v>
       </c>
       <c r="O72" s="1">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="P72" s="1">
-        <v>2.4</v>
+        <v>19.2</v>
       </c>
       <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ72" s="1">
         <v>5.8</v>
       </c>
-      <c r="R72" s="1">
+      <c r="AK72" s="1">
         <v>1.047</v>
       </c>
-      <c r="S72" s="1">
+      <c r="AL72" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="73" ht="35.6" spans="1:19">
+    <row r="73" ht="35.6" spans="1:38">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1">
         <v>1960</v>
@@ -5413,39 +9568,96 @@
         <v>0.7</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N73" s="1">
-        <v>2.92</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0.04</v>
+        <v>41</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.00292</v>
+      </c>
+      <c r="O73" s="2">
+        <v>4e-5</v>
       </c>
       <c r="P73" s="1">
-        <v>0.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>5</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ73" s="1">
         <v>5.8</v>
       </c>
-      <c r="R73" s="1">
+      <c r="AK73" s="1">
         <v>1.035</v>
       </c>
-      <c r="S73" s="1">
+      <c r="AL73" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="74" ht="35.6" spans="1:19">
+    <row r="74" ht="35.6" spans="1:38">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D74" s="1">
         <v>1960</v>
@@ -5473,39 +9685,96 @@
         <v>0.7</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0.574</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0.009</v>
+        <v>41</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.000574</v>
+      </c>
+      <c r="O74" s="2">
+        <v>9e-6</v>
       </c>
       <c r="P74" s="1">
-        <v>0.165</v>
+        <v>27.7</v>
       </c>
       <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>6</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ74" s="1">
         <v>5.8</v>
       </c>
-      <c r="R74" s="1">
+      <c r="AK74" s="1">
         <v>1.024</v>
       </c>
-      <c r="S74" s="1">
+      <c r="AL74" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="75" ht="35.6" spans="1:19">
+    <row r="75" ht="35.6" spans="1:38">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D75" s="1">
         <v>1960</v>
@@ -5533,39 +9802,96 @@
         <v>0.7</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0.0849</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0.0031</v>
+        <v>41</v>
+      </c>
+      <c r="N75" s="2">
+        <v>8.49e-5</v>
+      </c>
+      <c r="O75" s="2">
+        <v>3.1e-6</v>
       </c>
       <c r="P75" s="1">
-        <v>0.0309</v>
+        <v>34.9</v>
       </c>
       <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>7</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ75" s="1">
         <v>5.8</v>
       </c>
-      <c r="R75" s="1">
+      <c r="AK75" s="1">
         <v>1.013</v>
       </c>
-      <c r="S75" s="1">
+      <c r="AL75" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="76" ht="35.6" spans="1:19">
+    <row r="76" ht="35.6" spans="1:38">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D76" s="1">
         <v>1960</v>
@@ -5593,39 +9919,96 @@
         <v>0.7</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0.00865</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0.00063</v>
+        <v>41</v>
+      </c>
+      <c r="N76" s="2">
+        <v>8.65e-6</v>
+      </c>
+      <c r="O76" s="2">
+        <v>6.3e-7</v>
       </c>
       <c r="P76" s="1">
-        <v>0.00418</v>
+        <v>46</v>
       </c>
       <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ76" s="1">
         <v>5.8</v>
       </c>
-      <c r="R76" s="1">
+      <c r="AK76" s="1">
         <v>1.003</v>
       </c>
-      <c r="S76" s="1">
+      <c r="AL76" s="1">
         <v>1e-6</v>
       </c>
     </row>
-    <row r="77" ht="35.6" spans="1:19">
+    <row r="77" ht="35.6" spans="1:38">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D77" s="1">
         <v>1960</v>
@@ -5653,27 +10036,84 @@
         <v>0.7</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="1">
-        <v>0.000567</v>
-      </c>
-      <c r="O77" s="1">
-        <v>0.000165</v>
+        <v>41</v>
+      </c>
+      <c r="N77" s="2">
+        <v>5.67e-7</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1.65e-7</v>
       </c>
       <c r="P77" s="1">
-        <v>0.000325</v>
+        <v>52.9</v>
       </c>
       <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>19.1</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AJ77" s="1">
         <v>5.8</v>
       </c>
-      <c r="R77" s="1">
+      <c r="AK77" s="1">
         <v>0.993</v>
       </c>
-      <c r="S77" s="1">
+      <c r="AL77" s="1">
         <v>1e-6</v>
       </c>
     </row>

--- a/jets/expdata/10002.xlsx
+++ b/jets/expdata/10002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16980"/>
+    <workbookView windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -167,26 +167,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,48 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,38 +206,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +226,90 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,7 +320,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,19 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,43 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,97 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -594,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,150 +600,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,17 +1096,34 @@
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AL77"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="3" max="3" width="25.1875" customWidth="1"/>
     <col min="4" max="4" width="13.3125" customWidth="1"/>
     <col min="5" max="5" width="15.6875" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="34.0625" customWidth="1"/>
     <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="28.4375" customWidth="1"/>
+    <col min="11" max="11" width="26.4375" customWidth="1"/>
+    <col min="12" max="12" width="65.6875" customWidth="1"/>
+    <col min="13" max="13" width="12.1875" customWidth="1"/>
+    <col min="14" max="15" width="22.125" customWidth="1"/>
+    <col min="16" max="16" width="35.0625" customWidth="1"/>
+    <col min="17" max="21" width="56.5" customWidth="1"/>
+    <col min="22" max="26" width="56.8125" customWidth="1"/>
+    <col min="27" max="31" width="56.4375" customWidth="1"/>
+    <col min="32" max="32" width="34.0625" customWidth="1"/>
+    <col min="33" max="33" width="26.1875" customWidth="1"/>
+    <col min="34" max="34" width="35.375" customWidth="1"/>
+    <col min="35" max="35" width="29.9375" customWidth="1"/>
+    <col min="36" max="36" width="23.8125" customWidth="1"/>
+    <col min="37" max="37" width="38.8125" customWidth="1"/>
+    <col min="38" max="38" width="25.1875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.6" spans="1:38">
